--- a/Degraders_list_v4.xlsx
+++ b/Degraders_list_v4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20475" uniqueCount="2160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20475" uniqueCount="2159">
   <si>
     <t xml:space="preserve">Microorganism</t>
   </si>
@@ -6065,9 +6065,6 @@
   </si>
   <si>
     <t xml:space="preserve">The biodegradable polymer used in this study consisted of fine particles of poly caprolactone (PCL) with the trade TM name PLACCEL H7 (Daicel Chemical Industries Ltd Tokio). The molecular weight of the PCL was c. 70 000 and the diameter of the PCL particles ranged from 63 to 250 mm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streptomyces thermoolivaceous</t>
   </si>
   <si>
     <t xml:space="preserve">Streptomyces thermoviolaceus</t>
@@ -6650,8 +6647,8 @@
   </sheetPr>
   <dimension ref="A1:S1204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1110" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1117" activeCellId="0" sqref="B1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -71859,7 +71856,7 @@
     </row>
     <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="9" t="s">
-        <v>2015</v>
+        <v>1961</v>
       </c>
       <c r="B1106" s="2" t="n">
         <v>0</v>
@@ -71918,7 +71915,7 @@
     </row>
     <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B1107" s="2" t="n">
         <v>0</v>
@@ -71927,19 +71924,19 @@
         <v>64</v>
       </c>
       <c r="D1107" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E1107" s="3" t="s">
         <v>2017</v>
       </c>
-      <c r="E1107" s="3" t="s">
+      <c r="F1107" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1107" s="3" t="s">
         <v>2018</v>
-      </c>
-      <c r="F1107" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1107" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1107" s="3" t="s">
-        <v>2019</v>
       </c>
       <c r="I1107" s="3" t="n">
         <v>2013</v>
@@ -71948,7 +71945,7 @@
         <v>83</v>
       </c>
       <c r="K1107" s="5" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L1107" s="5" t="s">
         <v>23</v>
@@ -71977,7 +71974,7 @@
     </row>
     <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="9" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B1108" s="2" t="n">
         <v>0</v>
@@ -72036,10 +72033,10 @@
     </row>
     <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B1109" s="2" t="n">
-        <v>0</v>
+        <v>67581</v>
       </c>
       <c r="C1109" s="2" t="s">
         <v>1450</v>
@@ -72095,10 +72092,10 @@
     </row>
     <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="7" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B1110" s="8" t="n">
-        <v>0</v>
+        <v>2021</v>
+      </c>
+      <c r="B1110" s="2" t="n">
+        <v>67581</v>
       </c>
       <c r="C1110" s="8" t="s">
         <v>113</v>
@@ -72154,10 +72151,10 @@
     </row>
     <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1111" s="2" t="n">
-        <v>0</v>
+        <v>28572</v>
       </c>
       <c r="C1111" s="2" t="s">
         <v>64</v>
@@ -72213,16 +72210,16 @@
     </row>
     <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1112" s="2" t="n">
-        <v>0</v>
+        <v>28572</v>
       </c>
       <c r="C1112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1112" s="4" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E1112" s="3" t="s">
         <v>1279</v>
@@ -72272,16 +72269,16 @@
     </row>
     <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1113" s="2" t="n">
-        <v>0</v>
+        <v>28572</v>
       </c>
       <c r="C1113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1113" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E1113" s="3" t="s">
         <v>1279</v>
@@ -72331,10 +72328,10 @@
     </row>
     <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1114" s="2" t="n">
-        <v>0</v>
+        <v>28572</v>
       </c>
       <c r="C1114" s="2" t="s">
         <v>64</v>
@@ -72343,7 +72340,7 @@
         <v>1744</v>
       </c>
       <c r="E1114" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F1114" s="3" t="s">
         <v>22</v>
@@ -72361,7 +72358,7 @@
         <v>581</v>
       </c>
       <c r="K1114" s="5" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="L1114" s="5" t="s">
         <v>126</v>
@@ -72390,10 +72387,10 @@
     </row>
     <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1115" s="2" t="n">
-        <v>0</v>
+        <v>28572</v>
       </c>
       <c r="C1115" s="2" t="s">
         <v>20</v>
@@ -72402,7 +72399,7 @@
         <v>1744</v>
       </c>
       <c r="E1115" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F1115" s="3" t="s">
         <v>22</v>
@@ -72420,7 +72417,7 @@
         <v>581</v>
       </c>
       <c r="K1115" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="L1115" s="5" t="s">
         <v>185</v>
@@ -72449,10 +72446,10 @@
     </row>
     <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B1116" s="2" t="n">
-        <v>0</v>
+        <v>28574</v>
       </c>
       <c r="C1116" s="2" t="s">
         <v>20</v>
@@ -72508,7 +72505,7 @@
     </row>
     <row r="1117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="4" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B1117" s="2" t="n">
         <v>0</v>
@@ -72567,7 +72564,7 @@
     </row>
     <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="4" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B1118" s="2" t="n">
         <v>0</v>
@@ -72576,7 +72573,7 @@
         <v>237</v>
       </c>
       <c r="D1118" s="4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E1118" s="3" t="s">
         <v>22</v>
@@ -72594,10 +72591,10 @@
         <v>2017</v>
       </c>
       <c r="J1118" s="5" t="s">
+        <v>2032</v>
+      </c>
+      <c r="K1118" s="5" t="s">
         <v>2033</v>
-      </c>
-      <c r="K1118" s="5" t="s">
-        <v>2034</v>
       </c>
       <c r="L1118" s="5" t="s">
         <v>185</v>
@@ -72626,7 +72623,7 @@
     </row>
     <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="4" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B1119" s="2" t="n">
         <v>0</v>
@@ -72685,7 +72682,7 @@
     </row>
     <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B1120" s="2" t="n">
         <v>0</v>
@@ -72744,7 +72741,7 @@
     </row>
     <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="4" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B1121" s="2" t="n">
         <v>0</v>
@@ -72803,7 +72800,7 @@
     </row>
     <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="4" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B1122" s="2" t="n">
         <v>0</v>
@@ -72862,7 +72859,7 @@
     </row>
     <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="4" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1123" s="2" t="n">
         <v>0</v>
@@ -72921,7 +72918,7 @@
     </row>
     <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="7" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1124" s="8" t="n">
         <v>0</v>
@@ -72951,7 +72948,7 @@
         <v>441</v>
       </c>
       <c r="K1124" s="5" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="L1124" s="5" t="s">
         <v>62</v>
@@ -72980,7 +72977,7 @@
     </row>
     <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="4" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1125" s="2" t="n">
         <v>0</v>
@@ -73039,7 +73036,7 @@
     </row>
     <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="9" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1126" s="2" t="n">
         <v>0</v>
@@ -73057,10 +73054,10 @@
         <v>39</v>
       </c>
       <c r="G1126" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H1126" s="3" t="s">
         <v>2042</v>
-      </c>
-      <c r="H1126" s="3" t="s">
-        <v>2043</v>
       </c>
       <c r="I1126" s="3" t="s">
         <v>23</v>
@@ -73098,7 +73095,7 @@
     </row>
     <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="4" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1127" s="2" t="n">
         <v>0</v>
@@ -73116,10 +73113,10 @@
         <v>39</v>
       </c>
       <c r="G1127" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H1127" s="3" t="s">
         <v>2044</v>
-      </c>
-      <c r="H1127" s="3" t="s">
-        <v>2045</v>
       </c>
       <c r="I1127" s="3" t="n">
         <v>2010</v>
@@ -73157,7 +73154,7 @@
     </row>
     <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B1128" s="2" t="n">
         <v>0</v>
@@ -73166,7 +73163,7 @@
         <v>108</v>
       </c>
       <c r="D1128" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E1128" s="3" t="s">
         <v>492</v>
@@ -73175,19 +73172,19 @@
         <v>39</v>
       </c>
       <c r="G1128" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="H1128" s="3" t="s">
         <v>2048</v>
-      </c>
-      <c r="H1128" s="3" t="s">
-        <v>2049</v>
       </c>
       <c r="I1128" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="J1128" s="5" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K1128" s="6" t="s">
         <v>2050</v>
-      </c>
-      <c r="K1128" s="6" t="s">
-        <v>2051</v>
       </c>
       <c r="L1128" s="5" t="s">
         <v>185</v>
@@ -73216,7 +73213,7 @@
     </row>
     <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B1129" s="2" t="n">
         <v>0</v>
@@ -73225,7 +73222,7 @@
         <v>108</v>
       </c>
       <c r="D1129" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E1129" s="3" t="s">
         <v>492</v>
@@ -73234,19 +73231,19 @@
         <v>39</v>
       </c>
       <c r="G1129" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H1129" s="3" t="s">
         <v>2052</v>
-      </c>
-      <c r="H1129" s="3" t="s">
-        <v>2053</v>
       </c>
       <c r="I1129" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="J1129" s="5" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K1129" s="6" t="s">
         <v>2050</v>
-      </c>
-      <c r="K1129" s="6" t="s">
-        <v>2051</v>
       </c>
       <c r="L1129" s="5" t="s">
         <v>185</v>
@@ -73275,7 +73272,7 @@
     </row>
     <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B1130" s="2" t="n">
         <v>0</v>
@@ -73334,7 +73331,7 @@
     </row>
     <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B1131" s="2" t="n">
         <v>0</v>
@@ -73393,7 +73390,7 @@
     </row>
     <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="9" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B1132" s="2" t="n">
         <v>0</v>
@@ -73411,10 +73408,10 @@
         <v>39</v>
       </c>
       <c r="G1132" s="3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H1132" s="3" t="s">
         <v>2055</v>
-      </c>
-      <c r="H1132" s="3" t="s">
-        <v>2056</v>
       </c>
       <c r="I1132" s="3" t="s">
         <v>23</v>
@@ -73452,7 +73449,7 @@
     </row>
     <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B1133" s="2" t="n">
         <v>0</v>
@@ -73461,7 +73458,7 @@
         <v>108</v>
       </c>
       <c r="D1133" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E1133" s="3" t="s">
         <v>492</v>
@@ -73470,19 +73467,19 @@
         <v>39</v>
       </c>
       <c r="G1133" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H1133" s="3" t="s">
         <v>2057</v>
-      </c>
-      <c r="H1133" s="3" t="s">
-        <v>2058</v>
       </c>
       <c r="I1133" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="J1133" s="5" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K1133" s="6" t="s">
         <v>2050</v>
-      </c>
-      <c r="K1133" s="6" t="s">
-        <v>2051</v>
       </c>
       <c r="L1133" s="5" t="s">
         <v>185</v>
@@ -73511,7 +73508,7 @@
     </row>
     <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B1134" s="2" t="n">
         <v>0</v>
@@ -73570,16 +73567,16 @@
     </row>
     <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B1135" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1135" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D1135" s="4" t="s">
         <v>2059</v>
-      </c>
-      <c r="D1135" s="4" t="s">
-        <v>2060</v>
       </c>
       <c r="E1135" s="3" t="s">
         <v>22</v>
@@ -73600,7 +73597,7 @@
         <v>75</v>
       </c>
       <c r="K1135" s="5" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="L1135" s="5" t="s">
         <v>23</v>
@@ -73629,7 +73626,7 @@
     </row>
     <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B1136" s="2" t="n">
         <v>0</v>
@@ -73638,7 +73635,7 @@
         <v>108</v>
       </c>
       <c r="D1136" s="4" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E1136" s="3" t="s">
         <v>492</v>
@@ -73688,7 +73685,7 @@
     </row>
     <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1137" s="3" t="n">
         <v>0</v>
@@ -73700,16 +73697,16 @@
         <v>1267</v>
       </c>
       <c r="E1137" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F1137" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1137" s="3" t="s">
         <v>2064</v>
       </c>
-      <c r="F1137" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1137" s="3" t="s">
+      <c r="H1137" s="3" t="s">
         <v>2065</v>
-      </c>
-      <c r="H1137" s="3" t="s">
-        <v>2066</v>
       </c>
       <c r="I1137" s="3" t="s">
         <v>23</v>
@@ -73747,7 +73744,7 @@
     </row>
     <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="4" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1138" s="3" t="n">
         <v>0</v>
@@ -73765,10 +73762,10 @@
         <v>39</v>
       </c>
       <c r="G1138" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H1138" s="3" t="s">
         <v>2068</v>
-      </c>
-      <c r="H1138" s="3" t="s">
-        <v>2069</v>
       </c>
       <c r="I1138" s="3" t="s">
         <v>23</v>
@@ -73806,7 +73803,7 @@
     </row>
     <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1139" s="2" t="n">
         <v>0</v>
@@ -73865,7 +73862,7 @@
     </row>
     <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1140" s="2" t="n">
         <v>0</v>
@@ -73924,7 +73921,7 @@
     </row>
     <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="4" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1141" s="2" t="n">
         <v>0</v>
@@ -73933,7 +73930,7 @@
         <v>30</v>
       </c>
       <c r="D1141" s="4" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E1141" s="3" t="s">
         <v>22</v>
@@ -73951,10 +73948,10 @@
         <v>2014</v>
       </c>
       <c r="J1141" s="5" t="s">
+        <v>2073</v>
+      </c>
+      <c r="K1141" s="6" t="s">
         <v>2074</v>
-      </c>
-      <c r="K1141" s="6" t="s">
-        <v>2075</v>
       </c>
       <c r="L1141" s="5" t="s">
         <v>314</v>
@@ -73972,7 +73969,7 @@
         <v>158</v>
       </c>
       <c r="Q1141" s="5" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="R1141" s="5" t="s">
         <v>39</v>
@@ -73983,7 +73980,7 @@
     </row>
     <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1142" s="2" t="n">
         <v>0</v>
@@ -74042,7 +74039,7 @@
     </row>
     <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1143" s="2" t="n">
         <v>0</v>
@@ -74101,7 +74098,7 @@
     </row>
     <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1144" s="2" t="n">
         <v>0</v>
@@ -74160,7 +74157,7 @@
     </row>
     <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1145" s="2" t="n">
         <v>0</v>
@@ -74219,7 +74216,7 @@
     </row>
     <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1146" s="2" t="n">
         <v>0</v>
@@ -74278,7 +74275,7 @@
     </row>
     <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1147" s="2" t="n">
         <v>0</v>
@@ -74337,7 +74334,7 @@
     </row>
     <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1148" s="2" t="n">
         <v>0</v>
@@ -74346,10 +74343,10 @@
         <v>113</v>
       </c>
       <c r="D1148" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E1148" s="3" t="s">
         <v>2080</v>
-      </c>
-      <c r="E1148" s="3" t="s">
-        <v>2081</v>
       </c>
       <c r="F1148" s="3" t="s">
         <v>22</v>
@@ -74364,10 +74361,10 @@
         <v>2014</v>
       </c>
       <c r="J1148" s="5" t="s">
+        <v>2081</v>
+      </c>
+      <c r="K1148" s="5" t="s">
         <v>2082</v>
-      </c>
-      <c r="K1148" s="5" t="s">
-        <v>2083</v>
       </c>
       <c r="L1148" s="5" t="s">
         <v>23</v>
@@ -74396,7 +74393,7 @@
     </row>
     <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1149" s="2" t="n">
         <v>0</v>
@@ -74455,7 +74452,7 @@
     </row>
     <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1150" s="2" t="n">
         <v>0</v>
@@ -74514,7 +74511,7 @@
     </row>
     <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1151" s="2" t="n">
         <v>0</v>
@@ -74523,7 +74520,7 @@
         <v>134</v>
       </c>
       <c r="D1151" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E1151" s="3" t="s">
         <v>22</v>
@@ -74544,10 +74541,10 @@
         <v>83</v>
       </c>
       <c r="K1151" s="5" t="s">
+        <v>2085</v>
+      </c>
+      <c r="L1151" s="5" t="s">
         <v>2086</v>
-      </c>
-      <c r="L1151" s="5" t="s">
-        <v>2087</v>
       </c>
       <c r="M1151" s="5" t="s">
         <v>27</v>
@@ -74573,7 +74570,7 @@
     </row>
     <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1152" s="2" t="n">
         <v>0</v>
@@ -74632,7 +74629,7 @@
     </row>
     <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="9" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1153" s="2" t="n">
         <v>0</v>
@@ -74691,7 +74688,7 @@
     </row>
     <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B1154" s="2" t="n">
         <v>0</v>
@@ -74718,7 +74715,7 @@
         <v>2004</v>
       </c>
       <c r="J1154" s="5" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="K1154" s="5" t="s">
         <v>470</v>
@@ -74750,7 +74747,7 @@
     </row>
     <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1155" s="2" t="n">
         <v>0</v>
@@ -74759,7 +74756,7 @@
         <v>30</v>
       </c>
       <c r="D1155" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E1155" s="3" t="s">
         <v>22</v>
@@ -74777,10 +74774,10 @@
         <v>2016</v>
       </c>
       <c r="J1155" s="5" t="s">
+        <v>2091</v>
+      </c>
+      <c r="K1155" s="5" t="s">
         <v>2092</v>
-      </c>
-      <c r="K1155" s="5" t="s">
-        <v>2093</v>
       </c>
       <c r="L1155" s="5" t="s">
         <v>314</v>
@@ -74809,7 +74806,7 @@
     </row>
     <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1156" s="2" t="n">
         <v>0</v>
@@ -74868,7 +74865,7 @@
     </row>
     <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B1157" s="2" t="n">
         <v>0</v>
@@ -74927,7 +74924,7 @@
     </row>
     <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1158" s="2" t="n">
         <v>1914427</v>
@@ -74986,7 +74983,7 @@
     </row>
     <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="9" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1159" s="2" t="n">
         <v>0</v>
@@ -75004,10 +75001,10 @@
         <v>39</v>
       </c>
       <c r="G1159" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H1159" s="3" t="s">
         <v>2097</v>
-      </c>
-      <c r="H1159" s="3" t="s">
-        <v>2098</v>
       </c>
       <c r="I1159" s="3" t="n">
         <v>2018</v>
@@ -75045,7 +75042,7 @@
     </row>
     <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="9" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1160" s="2" t="n">
         <v>0</v>
@@ -75063,10 +75060,10 @@
         <v>39</v>
       </c>
       <c r="G1160" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H1160" s="3" t="s">
         <v>2097</v>
-      </c>
-      <c r="H1160" s="3" t="s">
-        <v>2098</v>
       </c>
       <c r="I1160" s="3" t="n">
         <v>2018</v>
@@ -75104,7 +75101,7 @@
     </row>
     <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1161" s="2" t="n">
         <v>0</v>
@@ -75113,7 +75110,7 @@
         <v>30</v>
       </c>
       <c r="D1161" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1161" s="3" t="s">
         <v>1291</v>
@@ -75122,10 +75119,10 @@
         <v>39</v>
       </c>
       <c r="G1161" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H1161" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="H1161" s="3" t="s">
-        <v>2101</v>
       </c>
       <c r="I1161" s="3" t="n">
         <v>2008</v>
@@ -75134,7 +75131,7 @@
         <v>92</v>
       </c>
       <c r="K1161" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="L1161" s="5" t="s">
         <v>984</v>
@@ -75163,7 +75160,7 @@
     </row>
     <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1162" s="2" t="n">
         <v>0</v>
@@ -75172,7 +75169,7 @@
         <v>30</v>
       </c>
       <c r="D1162" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1162" s="3" t="s">
         <v>1291</v>
@@ -75181,10 +75178,10 @@
         <v>39</v>
       </c>
       <c r="G1162" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H1162" s="3" t="s">
         <v>2103</v>
-      </c>
-      <c r="H1162" s="3" t="s">
-        <v>2104</v>
       </c>
       <c r="I1162" s="3" t="n">
         <v>2008</v>
@@ -75193,7 +75190,7 @@
         <v>92</v>
       </c>
       <c r="K1162" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="L1162" s="5" t="s">
         <v>984</v>
@@ -75222,7 +75219,7 @@
     </row>
     <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1163" s="2" t="n">
         <v>0</v>
@@ -75231,7 +75228,7 @@
         <v>30</v>
       </c>
       <c r="D1163" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1163" s="3" t="s">
         <v>1291</v>
@@ -75240,10 +75237,10 @@
         <v>39</v>
       </c>
       <c r="G1163" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H1163" s="3" t="s">
         <v>2105</v>
-      </c>
-      <c r="H1163" s="3" t="s">
-        <v>2106</v>
       </c>
       <c r="I1163" s="3" t="n">
         <v>2008</v>
@@ -75252,7 +75249,7 @@
         <v>92</v>
       </c>
       <c r="K1163" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="L1163" s="5" t="s">
         <v>984</v>
@@ -75281,7 +75278,7 @@
     </row>
     <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1164" s="2" t="n">
         <v>0</v>
@@ -75290,7 +75287,7 @@
         <v>30</v>
       </c>
       <c r="D1164" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1164" s="3" t="s">
         <v>1291</v>
@@ -75299,10 +75296,10 @@
         <v>39</v>
       </c>
       <c r="G1164" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="H1164" s="3" t="s">
         <v>2107</v>
-      </c>
-      <c r="H1164" s="3" t="s">
-        <v>2108</v>
       </c>
       <c r="I1164" s="3" t="n">
         <v>2008</v>
@@ -75311,7 +75308,7 @@
         <v>92</v>
       </c>
       <c r="K1164" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="L1164" s="5" t="s">
         <v>984</v>
@@ -75340,7 +75337,7 @@
     </row>
     <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1165" s="2" t="n">
         <v>0</v>
@@ -75349,7 +75346,7 @@
         <v>30</v>
       </c>
       <c r="D1165" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1165" s="3" t="s">
         <v>1291</v>
@@ -75358,10 +75355,10 @@
         <v>39</v>
       </c>
       <c r="G1165" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H1165" s="3" t="s">
         <v>2109</v>
-      </c>
-      <c r="H1165" s="3" t="s">
-        <v>2110</v>
       </c>
       <c r="I1165" s="3" t="n">
         <v>2008</v>
@@ -75370,7 +75367,7 @@
         <v>92</v>
       </c>
       <c r="K1165" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="L1165" s="5" t="s">
         <v>984</v>
@@ -75399,7 +75396,7 @@
     </row>
     <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1166" s="2" t="n">
         <v>0</v>
@@ -75408,7 +75405,7 @@
         <v>374</v>
       </c>
       <c r="D1166" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1166" s="3" t="s">
         <v>1291</v>
@@ -75417,10 +75414,10 @@
         <v>39</v>
       </c>
       <c r="G1166" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H1166" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="H1166" s="3" t="s">
-        <v>2101</v>
       </c>
       <c r="I1166" s="3" t="n">
         <v>2008</v>
@@ -75429,7 +75426,7 @@
         <v>216</v>
       </c>
       <c r="K1166" s="6" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="L1166" s="5" t="s">
         <v>100</v>
@@ -75458,7 +75455,7 @@
     </row>
     <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1167" s="2" t="n">
         <v>0</v>
@@ -75467,7 +75464,7 @@
         <v>374</v>
       </c>
       <c r="D1167" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1167" s="3" t="s">
         <v>1291</v>
@@ -75476,10 +75473,10 @@
         <v>39</v>
       </c>
       <c r="G1167" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H1167" s="3" t="s">
         <v>2105</v>
-      </c>
-      <c r="H1167" s="3" t="s">
-        <v>2106</v>
       </c>
       <c r="I1167" s="3" t="n">
         <v>2008</v>
@@ -75488,7 +75485,7 @@
         <v>216</v>
       </c>
       <c r="K1167" s="6" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="L1167" s="5" t="s">
         <v>100</v>
@@ -75517,7 +75514,7 @@
     </row>
     <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1168" s="2" t="n">
         <v>0</v>
@@ -75526,7 +75523,7 @@
         <v>374</v>
       </c>
       <c r="D1168" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1168" s="3" t="s">
         <v>1291</v>
@@ -75535,10 +75532,10 @@
         <v>39</v>
       </c>
       <c r="G1168" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H1168" s="3" t="s">
         <v>2109</v>
-      </c>
-      <c r="H1168" s="3" t="s">
-        <v>2110</v>
       </c>
       <c r="I1168" s="3" t="n">
         <v>2008</v>
@@ -75547,7 +75544,7 @@
         <v>216</v>
       </c>
       <c r="K1168" s="6" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="L1168" s="5" t="s">
         <v>100</v>
@@ -75576,7 +75573,7 @@
     </row>
     <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1169" s="2" t="n">
         <v>0</v>
@@ -75585,7 +75582,7 @@
         <v>78</v>
       </c>
       <c r="D1169" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1169" s="3" t="s">
         <v>1291</v>
@@ -75594,10 +75591,10 @@
         <v>39</v>
       </c>
       <c r="G1169" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H1169" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="H1169" s="3" t="s">
-        <v>2101</v>
       </c>
       <c r="I1169" s="3" t="n">
         <v>2008</v>
@@ -75606,7 +75603,7 @@
         <v>216</v>
       </c>
       <c r="K1169" s="6" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="L1169" s="5" t="s">
         <v>62</v>
@@ -75635,7 +75632,7 @@
     </row>
     <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1170" s="2" t="n">
         <v>0</v>
@@ -75644,7 +75641,7 @@
         <v>58</v>
       </c>
       <c r="D1170" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1170" s="3" t="s">
         <v>1291</v>
@@ -75653,10 +75650,10 @@
         <v>39</v>
       </c>
       <c r="G1170" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H1170" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="H1170" s="3" t="s">
-        <v>2101</v>
       </c>
       <c r="I1170" s="3" t="n">
         <v>2008</v>
@@ -75665,7 +75662,7 @@
         <v>216</v>
       </c>
       <c r="K1170" s="6" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="L1170" s="5" t="s">
         <v>62</v>
@@ -75694,7 +75691,7 @@
     </row>
     <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1171" s="2" t="n">
         <v>0</v>
@@ -75703,7 +75700,7 @@
         <v>78</v>
       </c>
       <c r="D1171" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1171" s="3" t="s">
         <v>1291</v>
@@ -75712,10 +75709,10 @@
         <v>39</v>
       </c>
       <c r="G1171" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H1171" s="3" t="s">
         <v>2105</v>
-      </c>
-      <c r="H1171" s="3" t="s">
-        <v>2106</v>
       </c>
       <c r="I1171" s="3" t="n">
         <v>2008</v>
@@ -75724,7 +75721,7 @@
         <v>216</v>
       </c>
       <c r="K1171" s="6" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="L1171" s="5" t="s">
         <v>62</v>
@@ -75753,7 +75750,7 @@
     </row>
     <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="7" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1172" s="8" t="n">
         <v>0</v>
@@ -75762,7 +75759,7 @@
         <v>58</v>
       </c>
       <c r="D1172" s="7" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1172" s="5" t="s">
         <v>1291</v>
@@ -75771,10 +75768,10 @@
         <v>39</v>
       </c>
       <c r="G1172" s="5" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H1172" s="5" t="s">
         <v>2105</v>
-      </c>
-      <c r="H1172" s="5" t="s">
-        <v>2106</v>
       </c>
       <c r="I1172" s="5" t="n">
         <v>2008</v>
@@ -75783,7 +75780,7 @@
         <v>216</v>
       </c>
       <c r="K1172" s="6" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="L1172" s="5" t="s">
         <v>62</v>
@@ -75812,7 +75809,7 @@
     </row>
     <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1173" s="2" t="n">
         <v>0</v>
@@ -75821,7 +75818,7 @@
         <v>78</v>
       </c>
       <c r="D1173" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1173" s="3" t="s">
         <v>1291</v>
@@ -75830,10 +75827,10 @@
         <v>39</v>
       </c>
       <c r="G1173" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H1173" s="3" t="s">
         <v>2109</v>
-      </c>
-      <c r="H1173" s="3" t="s">
-        <v>2110</v>
       </c>
       <c r="I1173" s="3" t="n">
         <v>2008</v>
@@ -75842,7 +75839,7 @@
         <v>216</v>
       </c>
       <c r="K1173" s="6" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="L1173" s="5" t="s">
         <v>62</v>
@@ -75871,7 +75868,7 @@
     </row>
     <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1174" s="2" t="n">
         <v>0</v>
@@ -75880,7 +75877,7 @@
         <v>58</v>
       </c>
       <c r="D1174" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1174" s="3" t="s">
         <v>1291</v>
@@ -75889,10 +75886,10 @@
         <v>39</v>
       </c>
       <c r="G1174" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H1174" s="3" t="s">
         <v>2109</v>
-      </c>
-      <c r="H1174" s="3" t="s">
-        <v>2110</v>
       </c>
       <c r="I1174" s="3" t="n">
         <v>2008</v>
@@ -75901,7 +75898,7 @@
         <v>216</v>
       </c>
       <c r="K1174" s="6" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="L1174" s="5" t="s">
         <v>62</v>
@@ -75930,7 +75927,7 @@
     </row>
     <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1175" s="2" t="n">
         <v>0</v>
@@ -75939,7 +75936,7 @@
         <v>20</v>
       </c>
       <c r="D1175" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1175" s="3" t="s">
         <v>1291</v>
@@ -75948,10 +75945,10 @@
         <v>39</v>
       </c>
       <c r="G1175" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H1175" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="H1175" s="3" t="s">
-        <v>2101</v>
       </c>
       <c r="I1175" s="3" t="n">
         <v>2008</v>
@@ -75960,7 +75957,7 @@
         <v>216</v>
       </c>
       <c r="K1175" s="6" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="L1175" s="5" t="s">
         <v>185</v>
@@ -75989,7 +75986,7 @@
     </row>
     <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1176" s="2" t="n">
         <v>0</v>
@@ -75998,7 +75995,7 @@
         <v>20</v>
       </c>
       <c r="D1176" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1176" s="3" t="s">
         <v>1291</v>
@@ -76007,10 +76004,10 @@
         <v>39</v>
       </c>
       <c r="G1176" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H1176" s="3" t="s">
         <v>2105</v>
-      </c>
-      <c r="H1176" s="3" t="s">
-        <v>2106</v>
       </c>
       <c r="I1176" s="3" t="n">
         <v>2008</v>
@@ -76019,7 +76016,7 @@
         <v>216</v>
       </c>
       <c r="K1176" s="6" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="L1176" s="5" t="s">
         <v>185</v>
@@ -76048,7 +76045,7 @@
     </row>
     <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1177" s="2" t="n">
         <v>0</v>
@@ -76057,7 +76054,7 @@
         <v>64</v>
       </c>
       <c r="D1177" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1177" s="3" t="s">
         <v>1291</v>
@@ -76066,10 +76063,10 @@
         <v>39</v>
       </c>
       <c r="G1177" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H1177" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="H1177" s="3" t="s">
-        <v>2101</v>
       </c>
       <c r="I1177" s="3" t="n">
         <v>2008</v>
@@ -76078,7 +76075,7 @@
         <v>216</v>
       </c>
       <c r="K1177" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="L1177" s="5" t="s">
         <v>984</v>
@@ -76107,7 +76104,7 @@
     </row>
     <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1178" s="2" t="n">
         <v>0</v>
@@ -76116,7 +76113,7 @@
         <v>64</v>
       </c>
       <c r="D1178" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1178" s="3" t="s">
         <v>1291</v>
@@ -76125,10 +76122,10 @@
         <v>39</v>
       </c>
       <c r="G1178" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H1178" s="3" t="s">
         <v>2105</v>
-      </c>
-      <c r="H1178" s="3" t="s">
-        <v>2106</v>
       </c>
       <c r="I1178" s="3" t="n">
         <v>2008</v>
@@ -76137,7 +76134,7 @@
         <v>216</v>
       </c>
       <c r="K1178" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="L1178" s="5" t="s">
         <v>984</v>
@@ -76166,7 +76163,7 @@
     </row>
     <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1179" s="2" t="n">
         <v>0</v>
@@ -76175,7 +76172,7 @@
         <v>64</v>
       </c>
       <c r="D1179" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E1179" s="3" t="s">
         <v>1291</v>
@@ -76184,10 +76181,10 @@
         <v>39</v>
       </c>
       <c r="G1179" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H1179" s="3" t="s">
         <v>2109</v>
-      </c>
-      <c r="H1179" s="3" t="s">
-        <v>2110</v>
       </c>
       <c r="I1179" s="3" t="n">
         <v>2008</v>
@@ -76196,7 +76193,7 @@
         <v>216</v>
       </c>
       <c r="K1179" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="L1179" s="5" t="s">
         <v>984</v>
@@ -76225,7 +76222,7 @@
     </row>
     <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1180" s="2" t="n">
         <v>0</v>
@@ -76234,19 +76231,19 @@
         <v>677</v>
       </c>
       <c r="D1180" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E1180" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="E1180" s="3" t="s">
+      <c r="F1180" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1180" s="3" t="s">
         <v>2115</v>
       </c>
-      <c r="F1180" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1180" s="3" t="s">
+      <c r="H1180" s="3" t="s">
         <v>2116</v>
-      </c>
-      <c r="H1180" s="3" t="s">
-        <v>2117</v>
       </c>
       <c r="I1180" s="3" t="n">
         <v>2017</v>
@@ -76255,7 +76252,7 @@
         <v>1190</v>
       </c>
       <c r="K1180" s="6" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L1180" s="5" t="s">
         <v>682</v>
@@ -76284,7 +76281,7 @@
     </row>
     <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1181" s="2" t="n">
         <v>0</v>
@@ -76293,19 +76290,19 @@
         <v>677</v>
       </c>
       <c r="D1181" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E1181" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="E1181" s="3" t="s">
-        <v>2115</v>
-      </c>
       <c r="F1181" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1181" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="H1181" s="3" t="s">
         <v>2119</v>
-      </c>
-      <c r="H1181" s="3" t="s">
-        <v>2120</v>
       </c>
       <c r="I1181" s="3" t="n">
         <v>2017</v>
@@ -76314,7 +76311,7 @@
         <v>1190</v>
       </c>
       <c r="K1181" s="6" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L1181" s="5" t="s">
         <v>682</v>
@@ -76343,7 +76340,7 @@
     </row>
     <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1182" s="2" t="n">
         <v>0</v>
@@ -76352,19 +76349,19 @@
         <v>677</v>
       </c>
       <c r="D1182" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E1182" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="E1182" s="3" t="s">
-        <v>2115</v>
-      </c>
       <c r="F1182" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1182" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H1182" s="3" t="s">
         <v>2121</v>
-      </c>
-      <c r="H1182" s="3" t="s">
-        <v>2122</v>
       </c>
       <c r="I1182" s="3" t="n">
         <v>2017</v>
@@ -76373,7 +76370,7 @@
         <v>1190</v>
       </c>
       <c r="K1182" s="6" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L1182" s="5" t="s">
         <v>682</v>
@@ -76402,7 +76399,7 @@
     </row>
     <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1183" s="2" t="n">
         <v>0</v>
@@ -76411,19 +76408,19 @@
         <v>677</v>
       </c>
       <c r="D1183" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E1183" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="E1183" s="3" t="s">
-        <v>2115</v>
-      </c>
       <c r="F1183" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1183" s="3" t="s">
+        <v>2122</v>
+      </c>
+      <c r="H1183" s="10" t="s">
         <v>2123</v>
-      </c>
-      <c r="H1183" s="10" t="s">
-        <v>2124</v>
       </c>
       <c r="I1183" s="3" t="n">
         <v>2017</v>
@@ -76432,7 +76429,7 @@
         <v>1190</v>
       </c>
       <c r="K1183" s="6" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L1183" s="5" t="s">
         <v>682</v>
@@ -76461,7 +76458,7 @@
     </row>
     <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1184" s="2" t="n">
         <v>0</v>
@@ -76470,19 +76467,19 @@
         <v>677</v>
       </c>
       <c r="D1184" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E1184" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="E1184" s="3" t="s">
-        <v>2115</v>
-      </c>
       <c r="F1184" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1184" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H1184" s="3" t="s">
         <v>2125</v>
-      </c>
-      <c r="H1184" s="3" t="s">
-        <v>2126</v>
       </c>
       <c r="I1184" s="3" t="n">
         <v>2017</v>
@@ -76491,7 +76488,7 @@
         <v>1190</v>
       </c>
       <c r="K1184" s="6" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L1184" s="5" t="s">
         <v>682</v>
@@ -76520,7 +76517,7 @@
     </row>
     <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1185" s="2" t="n">
         <v>0</v>
@@ -76529,19 +76526,19 @@
         <v>677</v>
       </c>
       <c r="D1185" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E1185" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="E1185" s="3" t="s">
-        <v>2115</v>
-      </c>
       <c r="F1185" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1185" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H1185" s="3" t="s">
         <v>2127</v>
-      </c>
-      <c r="H1185" s="3" t="s">
-        <v>2128</v>
       </c>
       <c r="I1185" s="3" t="n">
         <v>2017</v>
@@ -76550,7 +76547,7 @@
         <v>1190</v>
       </c>
       <c r="K1185" s="6" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L1185" s="5" t="s">
         <v>682</v>
@@ -76579,7 +76576,7 @@
     </row>
     <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1186" s="2" t="n">
         <v>0</v>
@@ -76588,7 +76585,7 @@
         <v>108</v>
       </c>
       <c r="D1186" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E1186" s="3" t="s">
         <v>492</v>
@@ -76597,10 +76594,10 @@
         <v>39</v>
       </c>
       <c r="G1186" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H1186" s="3" t="s">
         <v>2130</v>
-      </c>
-      <c r="H1186" s="3" t="s">
-        <v>2131</v>
       </c>
       <c r="I1186" s="3" t="n">
         <v>2012</v>
@@ -76609,7 +76606,7 @@
         <v>75</v>
       </c>
       <c r="K1186" s="10" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="L1186" s="3" t="s">
         <v>23</v>
@@ -76638,7 +76635,7 @@
     </row>
     <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1187" s="2" t="n">
         <v>0</v>
@@ -76647,7 +76644,7 @@
         <v>64</v>
       </c>
       <c r="D1187" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E1187" s="3" t="s">
         <v>492</v>
@@ -76656,10 +76653,10 @@
         <v>39</v>
       </c>
       <c r="G1187" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H1187" s="3" t="s">
         <v>2130</v>
-      </c>
-      <c r="H1187" s="3" t="s">
-        <v>2131</v>
       </c>
       <c r="I1187" s="3" t="n">
         <v>2012</v>
@@ -76668,7 +76665,7 @@
         <v>75</v>
       </c>
       <c r="K1187" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="L1187" s="5" t="s">
         <v>984</v>
@@ -76697,7 +76694,7 @@
     </row>
     <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B1188" s="2" t="n">
         <v>0</v>
@@ -76756,7 +76753,7 @@
     </row>
     <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="7" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1189" s="8" t="n">
         <v>0</v>
@@ -76786,7 +76783,7 @@
         <v>60</v>
       </c>
       <c r="K1189" s="5" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="L1189" s="5" t="s">
         <v>439</v>
@@ -76815,7 +76812,7 @@
     </row>
     <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1190" s="2" t="n">
         <v>0</v>
@@ -76845,7 +76842,7 @@
         <v>60</v>
       </c>
       <c r="K1190" s="5" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="L1190" s="5" t="s">
         <v>439</v>
@@ -76874,7 +76871,7 @@
     </row>
     <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1191" s="2" t="n">
         <v>0</v>
@@ -76933,7 +76930,7 @@
     </row>
     <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1192" s="2" t="n">
         <v>0</v>
@@ -76992,7 +76989,7 @@
     </row>
     <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1193" s="2" t="n">
         <v>0</v>
@@ -77051,7 +77048,7 @@
     </row>
     <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1194" s="2" t="n">
         <v>0</v>
@@ -77110,16 +77107,16 @@
     </row>
     <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1195" s="2" t="s">
         <v>2138</v>
       </c>
-      <c r="B1195" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1195" s="2" t="s">
+      <c r="D1195" s="4" t="s">
         <v>2139</v>
-      </c>
-      <c r="D1195" s="4" t="s">
-        <v>2140</v>
       </c>
       <c r="E1195" s="3" t="s">
         <v>22</v>
@@ -77137,10 +77134,10 @@
         <v>2015</v>
       </c>
       <c r="J1195" s="5" t="s">
+        <v>2140</v>
+      </c>
+      <c r="K1195" s="5" t="s">
         <v>2141</v>
-      </c>
-      <c r="K1195" s="5" t="s">
-        <v>2142</v>
       </c>
       <c r="L1195" s="5" t="s">
         <v>1026</v>
@@ -77169,16 +77166,16 @@
     </row>
     <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B1196" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1196" s="2" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D1196" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E1196" s="3" t="s">
         <v>22</v>
@@ -77196,13 +77193,13 @@
         <v>2014</v>
       </c>
       <c r="J1196" s="5" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="K1196" s="5" t="s">
+        <v>2143</v>
+      </c>
+      <c r="L1196" s="5" t="s">
         <v>2144</v>
-      </c>
-      <c r="L1196" s="5" t="s">
-        <v>2145</v>
       </c>
       <c r="M1196" s="5" t="s">
         <v>27</v>
@@ -77228,7 +77225,7 @@
     </row>
     <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="4" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B1197" s="2" t="n">
         <v>29494</v>
@@ -77287,7 +77284,7 @@
     </row>
     <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="9" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1198" s="2" t="n">
         <v>0</v>
@@ -77305,10 +77302,10 @@
         <v>39</v>
       </c>
       <c r="G1198" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H1198" s="3" t="s">
         <v>2148</v>
-      </c>
-      <c r="H1198" s="3" t="s">
-        <v>2149</v>
       </c>
       <c r="I1198" s="3" t="n">
         <v>2018</v>
@@ -77346,7 +77343,7 @@
     </row>
     <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="9" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1199" s="2" t="n">
         <v>0</v>
@@ -77364,10 +77361,10 @@
         <v>39</v>
       </c>
       <c r="G1199" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H1199" s="3" t="s">
         <v>2148</v>
-      </c>
-      <c r="H1199" s="3" t="s">
-        <v>2149</v>
       </c>
       <c r="I1199" s="3" t="n">
         <v>2018</v>
@@ -77405,16 +77402,16 @@
     </row>
     <row r="1200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B1200" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1200" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D1200" s="4" t="s">
         <v>2139</v>
-      </c>
-      <c r="D1200" s="4" t="s">
-        <v>2140</v>
       </c>
       <c r="E1200" s="3" t="s">
         <v>22</v>
@@ -77432,10 +77429,10 @@
         <v>2017</v>
       </c>
       <c r="J1200" s="5" t="s">
+        <v>2140</v>
+      </c>
+      <c r="K1200" s="5" t="s">
         <v>2141</v>
-      </c>
-      <c r="K1200" s="5" t="s">
-        <v>2142</v>
       </c>
       <c r="L1200" s="5" t="s">
         <v>1026</v>
@@ -77464,16 +77461,16 @@
     </row>
     <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B1201" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1201" s="2" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D1201" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E1201" s="3" t="s">
         <v>22</v>
@@ -77491,13 +77488,13 @@
         <v>2016</v>
       </c>
       <c r="J1201" s="5" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="K1201" s="5" t="s">
+        <v>2143</v>
+      </c>
+      <c r="L1201" s="5" t="s">
         <v>2144</v>
-      </c>
-      <c r="L1201" s="5" t="s">
-        <v>2145</v>
       </c>
       <c r="M1201" s="5" t="s">
         <v>27</v>
@@ -77523,7 +77520,7 @@
     </row>
     <row r="1202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B1202" s="2" t="n">
         <v>0</v>
@@ -77582,7 +77579,7 @@
     </row>
     <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B1203" s="2" t="n">
         <v>0</v>
@@ -77591,7 +77588,7 @@
         <v>113</v>
       </c>
       <c r="D1203" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E1203" s="3" t="s">
         <v>22</v>
@@ -77609,10 +77606,10 @@
         <v>2008</v>
       </c>
       <c r="J1203" s="5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="K1203" s="5" t="s">
         <v>2154</v>
-      </c>
-      <c r="K1203" s="5" t="s">
-        <v>2155</v>
       </c>
       <c r="L1203" s="5" t="s">
         <v>23</v>
@@ -77641,7 +77638,7 @@
     </row>
     <row r="1204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="7" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B1204" s="8" t="n">
         <v>0</v>
@@ -77650,10 +77647,10 @@
         <v>1541</v>
       </c>
       <c r="D1204" s="7" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E1204" s="5" t="s">
         <v>2157</v>
-      </c>
-      <c r="E1204" s="5" t="s">
-        <v>2158</v>
       </c>
       <c r="F1204" s="5" t="s">
         <v>22</v>
@@ -77671,7 +77668,7 @@
         <v>83</v>
       </c>
       <c r="K1204" s="5" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="L1204" s="5" t="s">
         <v>23</v>

--- a/Degraders_list_v4.xlsx
+++ b/Degraders_list_v4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20475" uniqueCount="2157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20475" uniqueCount="2156">
   <si>
     <t xml:space="preserve">Microorganism</t>
   </si>
@@ -1621,7 +1621,7 @@
     <t xml:space="preserve">Samples of poly-&amp;hydroxybutyrate or PHB granules (-O-CH(CH3)-CH2-CO-}n exhibiting an average molecular weight (Mw) of 9.4 x10^5, a melting temperature of 170 °C and a purity of 98%. </t>
   </si>
   <si>
-    <t xml:space="preserve">Philipines</t>
+    <t xml:space="preserve">Philippines</t>
   </si>
   <si>
     <t xml:space="preserve">Aspergillus sydowii</t>
@@ -4739,9 +4739,6 @@
   </si>
   <si>
     <t xml:space="preserve">Root nodules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
   </si>
   <si>
     <t xml:space="preserve">Schirmer, A., &amp; Jendrossek, D. (1994). Molecular characterization of the extracellular poly (3-hydroxyoctanoic acid)[P (3HO)] depolymerase gene of Pseudomonas fluorescens GK13 and of its gene product. Journal of bacteriology, 176(22), 7065-7073.</t>
@@ -6641,8 +6638,8 @@
   </sheetPr>
   <dimension ref="A1:S1204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M569" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q577" activeCellId="0" sqref="Q577"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M375" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q383" activeCellId="0" sqref="Q383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52782,7 +52779,7 @@
         <v>360</v>
       </c>
       <c r="Q782" s="5" t="s">
-        <v>1573</v>
+        <v>533</v>
       </c>
       <c r="R782" s="5" t="s">
         <v>22</v>
@@ -52979,19 +52976,19 @@
         <v>946</v>
       </c>
       <c r="D786" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E786" s="3" t="s">
         <v>1574</v>
       </c>
-      <c r="E786" s="3" t="s">
+      <c r="F786" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G786" s="3" t="s">
         <v>1575</v>
       </c>
-      <c r="F786" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G786" s="3" t="s">
+      <c r="H786" s="3" t="s">
         <v>1576</v>
-      </c>
-      <c r="H786" s="3" t="s">
-        <v>1577</v>
       </c>
       <c r="I786" s="3" t="n">
         <v>1994</v>
@@ -53000,7 +52997,7 @@
         <v>92</v>
       </c>
       <c r="K786" s="5" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="L786" s="5" t="s">
         <v>23</v>
@@ -53029,7 +53026,7 @@
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B787" s="2" t="n">
         <v>0</v>
@@ -53088,7 +53085,7 @@
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B788" s="2" t="n">
         <v>0</v>
@@ -53147,7 +53144,7 @@
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B789" s="2" t="n">
         <v>0</v>
@@ -53206,7 +53203,7 @@
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B790" s="2" t="n">
         <v>0</v>
@@ -53265,7 +53262,7 @@
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B791" s="2" t="n">
         <v>0</v>
@@ -53274,10 +53271,10 @@
         <v>30</v>
       </c>
       <c r="D791" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E791" s="3" t="s">
         <v>1581</v>
-      </c>
-      <c r="E791" s="3" t="s">
-        <v>1582</v>
       </c>
       <c r="F791" s="3" t="s">
         <v>22</v>
@@ -53295,7 +53292,7 @@
         <v>1496</v>
       </c>
       <c r="K791" s="5" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="L791" s="5" t="s">
         <v>314</v>
@@ -53324,16 +53321,16 @@
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B792" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C792" s="3" t="s">
         <v>1584</v>
       </c>
-      <c r="B792" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C792" s="3" t="s">
+      <c r="D792" s="4" t="s">
         <v>1585</v>
-      </c>
-      <c r="D792" s="4" t="s">
-        <v>1586</v>
       </c>
       <c r="E792" s="3" t="s">
         <v>103</v>
@@ -53351,10 +53348,10 @@
         <v>2004</v>
       </c>
       <c r="J792" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K792" s="5" t="s">
         <v>1587</v>
-      </c>
-      <c r="K792" s="5" t="s">
-        <v>1588</v>
       </c>
       <c r="L792" s="5" t="s">
         <v>23</v>
@@ -53383,7 +53380,7 @@
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B793" s="2" t="n">
         <v>0</v>
@@ -53442,7 +53439,7 @@
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B794" s="2" t="n">
         <v>0</v>
@@ -53501,7 +53498,7 @@
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B795" s="2" t="n">
         <v>0</v>
@@ -53560,7 +53557,7 @@
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B796" s="2" t="n">
         <v>0</v>
@@ -53619,7 +53616,7 @@
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B797" s="2" t="n">
         <v>0</v>
@@ -53678,7 +53675,7 @@
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B798" s="2" t="n">
         <v>0</v>
@@ -53737,7 +53734,7 @@
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="9" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B799" s="2" t="n">
         <v>0</v>
@@ -53796,16 +53793,16 @@
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B800" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C800" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="B800" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C800" s="2" t="s">
+      <c r="D800" s="4" t="s">
         <v>1593</v>
-      </c>
-      <c r="D800" s="4" t="s">
-        <v>1594</v>
       </c>
       <c r="E800" s="3" t="s">
         <v>22</v>
@@ -53823,13 +53820,13 @@
         <v>2017</v>
       </c>
       <c r="J800" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K800" s="5" t="s">
         <v>1595</v>
       </c>
-      <c r="K800" s="5" t="s">
+      <c r="L800" s="5" t="s">
         <v>1596</v>
-      </c>
-      <c r="L800" s="5" t="s">
-        <v>1597</v>
       </c>
       <c r="M800" s="5" t="s">
         <v>39</v>
@@ -53855,7 +53852,7 @@
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B801" s="2" t="n">
         <v>0</v>
@@ -53864,7 +53861,7 @@
         <v>20</v>
       </c>
       <c r="D801" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E801" s="3" t="s">
         <v>89</v>
@@ -53873,19 +53870,19 @@
         <v>39</v>
       </c>
       <c r="G801" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H801" s="3" t="s">
         <v>1599</v>
-      </c>
-      <c r="H801" s="3" t="s">
-        <v>1600</v>
       </c>
       <c r="I801" s="3" t="n">
         <v>2012</v>
       </c>
       <c r="J801" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="K801" s="10" t="s">
         <v>1601</v>
-      </c>
-      <c r="K801" s="10" t="s">
-        <v>1602</v>
       </c>
       <c r="L801" s="3" t="s">
         <v>23</v>
@@ -53914,7 +53911,7 @@
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B802" s="2" t="n">
         <v>0</v>
@@ -53923,7 +53920,7 @@
         <v>20</v>
       </c>
       <c r="D802" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E802" s="3" t="s">
         <v>22</v>
@@ -53941,13 +53938,13 @@
         <v>2013</v>
       </c>
       <c r="J802" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K802" s="5" t="s">
         <v>1604</v>
       </c>
-      <c r="K802" s="5" t="s">
+      <c r="L802" s="5" t="s">
         <v>1605</v>
-      </c>
-      <c r="L802" s="5" t="s">
-        <v>1606</v>
       </c>
       <c r="M802" s="5" t="s">
         <v>27</v>
@@ -53973,7 +53970,7 @@
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B803" s="2" t="n">
         <v>0</v>
@@ -54032,7 +54029,7 @@
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B804" s="2" t="n">
         <v>0</v>
@@ -54080,7 +54077,7 @@
         <v>197</v>
       </c>
       <c r="Q804" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="R804" s="3" t="s">
         <v>22</v>
@@ -54091,7 +54088,7 @@
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B805" s="2" t="n">
         <v>0</v>
@@ -54139,7 +54136,7 @@
         <v>197</v>
       </c>
       <c r="Q805" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="R805" s="3" t="s">
         <v>22</v>
@@ -54150,7 +54147,7 @@
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B806" s="2" t="n">
         <v>0</v>
@@ -54209,7 +54206,7 @@
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B807" s="2" t="n">
         <v>0</v>
@@ -54218,7 +54215,7 @@
         <v>64</v>
       </c>
       <c r="D807" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E807" s="3" t="s">
         <v>22</v>
@@ -54236,10 +54233,10 @@
         <v>2018</v>
       </c>
       <c r="J807" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K807" s="5" t="s">
         <v>1613</v>
-      </c>
-      <c r="K807" s="5" t="s">
-        <v>1614</v>
       </c>
       <c r="L807" s="5" t="s">
         <v>126</v>
@@ -54268,7 +54265,7 @@
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B808" s="2" t="n">
         <v>0</v>
@@ -54327,7 +54324,7 @@
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B809" s="2" t="n">
         <v>0</v>
@@ -54386,7 +54383,7 @@
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B810" s="2" t="n">
         <v>0</v>
@@ -54428,13 +54425,13 @@
         <v>22</v>
       </c>
       <c r="O810" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="P810" s="3" t="s">
         <v>197</v>
       </c>
       <c r="Q810" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="R810" s="3" t="s">
         <v>22</v>
@@ -54445,7 +54442,7 @@
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B811" s="2" t="n">
         <v>0</v>
@@ -54487,13 +54484,13 @@
         <v>22</v>
       </c>
       <c r="O811" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="P811" s="3" t="s">
         <v>197</v>
       </c>
       <c r="Q811" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="R811" s="3" t="s">
         <v>22</v>
@@ -54504,7 +54501,7 @@
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B812" s="2" t="n">
         <v>0</v>
@@ -54513,7 +54510,7 @@
         <v>134</v>
       </c>
       <c r="D812" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E812" s="3" t="s">
         <v>74</v>
@@ -54525,16 +54522,16 @@
         <v>23</v>
       </c>
       <c r="H812" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I812" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="J812" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K812" s="5" t="s">
         <v>1622</v>
-      </c>
-      <c r="K812" s="5" t="s">
-        <v>1623</v>
       </c>
       <c r="L812" s="5" t="s">
         <v>77</v>
@@ -54563,7 +54560,7 @@
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B813" s="2" t="n">
         <v>380021</v>
@@ -54622,7 +54619,7 @@
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B814" s="2" t="n">
         <v>0</v>
@@ -54681,7 +54678,7 @@
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B815" s="2" t="n">
         <v>0</v>
@@ -54690,19 +54687,19 @@
         <v>677</v>
       </c>
       <c r="D815" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E815" s="3" t="s">
         <v>1625</v>
       </c>
-      <c r="E815" s="3" t="s">
+      <c r="F815" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G815" s="3" t="s">
         <v>1626</v>
       </c>
-      <c r="F815" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G815" s="3" t="s">
+      <c r="H815" s="3" t="s">
         <v>1627</v>
-      </c>
-      <c r="H815" s="3" t="s">
-        <v>1628</v>
       </c>
       <c r="I815" s="3" t="n">
         <v>2017</v>
@@ -54711,7 +54708,7 @@
         <v>208</v>
       </c>
       <c r="K815" s="10" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="L815" s="3" t="s">
         <v>682</v>
@@ -54740,7 +54737,7 @@
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B816" s="2" t="n">
         <v>0</v>
@@ -54799,7 +54796,7 @@
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B817" s="2" t="n">
         <v>0</v>
@@ -54808,7 +54805,7 @@
         <v>127</v>
       </c>
       <c r="D817" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E817" s="3" t="s">
         <v>22</v>
@@ -54826,10 +54823,10 @@
         <v>2017</v>
       </c>
       <c r="J817" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K817" s="6" t="s">
         <v>1632</v>
-      </c>
-      <c r="K817" s="6" t="s">
-        <v>1633</v>
       </c>
       <c r="L817" s="5" t="s">
         <v>23</v>
@@ -54858,7 +54855,7 @@
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B818" s="2" t="n">
         <v>0</v>
@@ -54917,7 +54914,7 @@
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B819" s="2" t="n">
         <v>0</v>
@@ -54976,7 +54973,7 @@
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B820" s="2" t="n">
         <v>0</v>
@@ -55035,7 +55032,7 @@
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B821" s="2" t="n">
         <v>0</v>
@@ -55094,7 +55091,7 @@
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B822" s="2" t="n">
         <v>0</v>
@@ -55103,7 +55100,7 @@
         <v>237</v>
       </c>
       <c r="D822" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E822" s="3" t="s">
         <v>22</v>
@@ -55124,7 +55121,7 @@
         <v>208</v>
       </c>
       <c r="K822" s="5" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="L822" s="5" t="s">
         <v>23</v>
@@ -55153,7 +55150,7 @@
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B823" s="2" t="n">
         <v>0</v>
@@ -55212,7 +55209,7 @@
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B824" s="2" t="n">
         <v>0</v>
@@ -55271,16 +55268,16 @@
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B825" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C825" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="B825" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C825" s="2" t="s">
+      <c r="D825" s="4" t="s">
         <v>1638</v>
-      </c>
-      <c r="D825" s="4" t="s">
-        <v>1639</v>
       </c>
       <c r="E825" s="3" t="s">
         <v>22</v>
@@ -55298,10 +55295,10 @@
         <v>2008</v>
       </c>
       <c r="J825" s="5" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K825" s="5" t="s">
         <v>1640</v>
-      </c>
-      <c r="K825" s="5" t="s">
-        <v>1641</v>
       </c>
       <c r="L825" s="5" t="s">
         <v>23</v>
@@ -55330,7 +55327,7 @@
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B826" s="2" t="n">
         <v>0</v>
@@ -55389,7 +55386,7 @@
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B827" s="2" t="n">
         <v>0</v>
@@ -55448,7 +55445,7 @@
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B828" s="2" t="n">
         <v>0</v>
@@ -55507,16 +55504,16 @@
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B829" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C829" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D829" s="4" t="s">
         <v>1642</v>
-      </c>
-      <c r="D829" s="4" t="s">
-        <v>1643</v>
       </c>
       <c r="E829" s="3" t="s">
         <v>22</v>
@@ -55537,7 +55534,7 @@
         <v>92</v>
       </c>
       <c r="K829" s="5" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="L829" s="5" t="s">
         <v>23</v>
@@ -55566,7 +55563,7 @@
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B830" s="2" t="n">
         <v>0</v>
@@ -55575,7 +55572,7 @@
         <v>946</v>
       </c>
       <c r="D830" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E830" s="3" t="s">
         <v>22</v>
@@ -55596,7 +55593,7 @@
         <v>92</v>
       </c>
       <c r="K830" s="5" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="L830" s="5" t="s">
         <v>23</v>
@@ -55625,7 +55622,7 @@
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B831" s="2" t="n">
         <v>0</v>
@@ -55684,7 +55681,7 @@
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B832" s="2" t="n">
         <v>0</v>
@@ -55693,7 +55690,7 @@
         <v>30</v>
       </c>
       <c r="D832" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E832" s="3" t="s">
         <v>22</v>
@@ -55714,16 +55711,16 @@
         <v>83</v>
       </c>
       <c r="K832" s="5" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L832" s="5" t="s">
         <v>1646</v>
       </c>
-      <c r="L832" s="5" t="s">
+      <c r="M832" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N832" s="5" t="s">
         <v>1647</v>
-      </c>
-      <c r="M832" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N832" s="5" t="s">
-        <v>1648</v>
       </c>
       <c r="O832" s="5" t="s">
         <v>28</v>
@@ -55743,7 +55740,7 @@
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B833" s="2" t="n">
         <v>0</v>
@@ -55802,7 +55799,7 @@
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B834" s="2" t="n">
         <v>0</v>
@@ -55861,7 +55858,7 @@
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="7" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B835" s="8" t="n">
         <v>0</v>
@@ -55870,7 +55867,7 @@
         <v>113</v>
       </c>
       <c r="D835" s="7" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E835" s="5" t="s">
         <v>22</v>
@@ -55891,7 +55888,7 @@
         <v>75</v>
       </c>
       <c r="K835" s="5" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="L835" s="5" t="s">
         <v>23</v>
@@ -55920,7 +55917,7 @@
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B836" s="2" t="n">
         <v>0</v>
@@ -55929,7 +55926,7 @@
         <v>113</v>
       </c>
       <c r="D836" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E836" s="3" t="s">
         <v>22</v>
@@ -55950,7 +55947,7 @@
         <v>70</v>
       </c>
       <c r="K836" s="5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="L836" s="5" t="s">
         <v>23</v>
@@ -55979,7 +55976,7 @@
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B837" s="2" t="n">
         <v>0</v>
@@ -56038,7 +56035,7 @@
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B838" s="2" t="n">
         <v>0</v>
@@ -56097,7 +56094,7 @@
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B839" s="2" t="n">
         <v>0</v>
@@ -56156,7 +56153,7 @@
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B840" s="2" t="n">
         <v>0</v>
@@ -56215,7 +56212,7 @@
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B841" s="2" t="n">
         <v>0</v>
@@ -56224,7 +56221,7 @@
         <v>658</v>
       </c>
       <c r="D841" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E841" s="3" t="s">
         <v>22</v>
@@ -56274,28 +56271,28 @@
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B842" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C842" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D842" s="4" t="s">
         <v>1654</v>
       </c>
-      <c r="D842" s="4" t="s">
+      <c r="E842" s="3" t="s">
         <v>1655</v>
       </c>
-      <c r="E842" s="3" t="s">
+      <c r="F842" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G842" s="3" t="s">
         <v>1656</v>
       </c>
-      <c r="F842" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G842" s="3" t="s">
+      <c r="H842" s="3" t="s">
         <v>1657</v>
-      </c>
-      <c r="H842" s="3" t="s">
-        <v>1658</v>
       </c>
       <c r="I842" s="3" t="n">
         <v>2000</v>
@@ -56304,7 +56301,7 @@
         <v>216</v>
       </c>
       <c r="K842" s="10" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="L842" s="3" t="s">
         <v>23</v>
@@ -56333,7 +56330,7 @@
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B843" s="2" t="n">
         <v>0</v>
@@ -56342,28 +56339,28 @@
         <v>658</v>
       </c>
       <c r="D843" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E843" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F843" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G843" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="F843" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G843" s="3" t="s">
+      <c r="H843" s="3" t="s">
         <v>1661</v>
-      </c>
-      <c r="H843" s="3" t="s">
-        <v>1662</v>
       </c>
       <c r="I843" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="J843" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K843" s="10" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="L843" s="3" t="s">
         <v>23</v>
@@ -56392,7 +56389,7 @@
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B844" s="2" t="n">
         <v>0</v>
@@ -56401,19 +56398,19 @@
         <v>658</v>
       </c>
       <c r="D844" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F844" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G844" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="E844" s="3" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F844" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G844" s="3" t="s">
-        <v>1665</v>
-      </c>
       <c r="H844" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I844" s="3" t="n">
         <v>1996</v>
@@ -56422,7 +56419,7 @@
         <v>216</v>
       </c>
       <c r="K844" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="L844" s="5" t="s">
         <v>982</v>
@@ -56451,7 +56448,7 @@
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B845" s="2" t="n">
         <v>0</v>
@@ -56510,7 +56507,7 @@
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B846" s="2" t="n">
         <v>0</v>
@@ -56519,7 +56516,7 @@
         <v>34</v>
       </c>
       <c r="D846" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E846" s="3" t="s">
         <v>74</v>
@@ -56540,7 +56537,7 @@
         <v>70</v>
       </c>
       <c r="K846" s="5" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="L846" s="5" t="s">
         <v>23</v>
@@ -56569,7 +56566,7 @@
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B847" s="2" t="n">
         <v>0</v>
@@ -56578,7 +56575,7 @@
         <v>134</v>
       </c>
       <c r="D847" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E847" s="3" t="s">
         <v>136</v>
@@ -56587,10 +56584,10 @@
         <v>39</v>
       </c>
       <c r="G847" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H847" s="3" t="s">
         <v>1670</v>
-      </c>
-      <c r="H847" s="3" t="s">
-        <v>1671</v>
       </c>
       <c r="I847" s="3" t="n">
         <v>2018</v>
@@ -56628,7 +56625,7 @@
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B848" s="2" t="n">
         <v>0</v>
@@ -56637,7 +56634,7 @@
         <v>51</v>
       </c>
       <c r="D848" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E848" s="3" t="s">
         <v>136</v>
@@ -56646,10 +56643,10 @@
         <v>39</v>
       </c>
       <c r="G848" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H848" s="3" t="s">
         <v>1670</v>
-      </c>
-      <c r="H848" s="3" t="s">
-        <v>1671</v>
       </c>
       <c r="I848" s="3" t="n">
         <v>2018</v>
@@ -56687,7 +56684,7 @@
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B849" s="2" t="n">
         <v>0</v>
@@ -56696,7 +56693,7 @@
         <v>113</v>
       </c>
       <c r="D849" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E849" s="3" t="s">
         <v>22</v>
@@ -56717,7 +56714,7 @@
         <v>645</v>
       </c>
       <c r="K849" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="L849" s="5" t="s">
         <v>23</v>
@@ -56746,7 +56743,7 @@
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B850" s="2" t="n">
         <v>0</v>
@@ -56755,7 +56752,7 @@
         <v>118</v>
       </c>
       <c r="D850" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E850" s="3" t="s">
         <v>22</v>
@@ -56773,10 +56770,10 @@
         <v>2013</v>
       </c>
       <c r="J850" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K850" s="5" t="s">
         <v>1676</v>
-      </c>
-      <c r="K850" s="5" t="s">
-        <v>1677</v>
       </c>
       <c r="L850" s="5" t="s">
         <v>23</v>
@@ -56805,7 +56802,7 @@
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B851" s="2" t="n">
         <v>0</v>
@@ -56814,7 +56811,7 @@
         <v>374</v>
       </c>
       <c r="D851" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E851" s="3" t="s">
         <v>22</v>
@@ -56835,7 +56832,7 @@
         <v>645</v>
       </c>
       <c r="K851" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="L851" s="5" t="s">
         <v>23</v>
@@ -56864,7 +56861,7 @@
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B852" s="3" t="n">
         <v>0</v>
@@ -56873,7 +56870,7 @@
         <v>374</v>
       </c>
       <c r="D852" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E852" s="3" t="s">
         <v>22</v>
@@ -56894,7 +56891,7 @@
         <v>570</v>
       </c>
       <c r="K852" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="L852" s="3" t="s">
         <v>185</v>
@@ -56923,7 +56920,7 @@
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="9" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B853" s="2" t="n">
         <v>0</v>
@@ -56982,7 +56979,7 @@
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="9" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B854" s="2" t="n">
         <v>0</v>
@@ -57041,7 +57038,7 @@
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="9" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B855" s="2" t="n">
         <v>0</v>
@@ -57100,7 +57097,7 @@
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="9" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B856" s="2" t="n">
         <v>0</v>
@@ -57159,7 +57156,7 @@
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B857" s="2" t="n">
         <v>0</v>
@@ -57218,7 +57215,7 @@
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B858" s="2" t="n">
         <v>0</v>
@@ -57227,7 +57224,7 @@
         <v>30</v>
       </c>
       <c r="D858" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E858" s="3" t="s">
         <v>22</v>
@@ -57245,13 +57242,13 @@
         <v>2011</v>
       </c>
       <c r="J858" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="K858" s="5" t="s">
         <v>1682</v>
       </c>
-      <c r="K858" s="5" t="s">
+      <c r="L858" s="5" t="s">
         <v>1683</v>
-      </c>
-      <c r="L858" s="5" t="s">
-        <v>1684</v>
       </c>
       <c r="M858" s="5" t="s">
         <v>27</v>
@@ -57277,7 +57274,7 @@
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B859" s="2" t="n">
         <v>0</v>
@@ -57286,19 +57283,19 @@
         <v>113</v>
       </c>
       <c r="D859" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E859" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="E859" s="3" t="s">
+      <c r="F859" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G859" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H859" s="3" t="s">
         <v>1686</v>
-      </c>
-      <c r="F859" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G859" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H859" s="3" t="s">
-        <v>1687</v>
       </c>
       <c r="I859" s="3" t="n">
         <v>2012</v>
@@ -57307,7 +57304,7 @@
         <v>179</v>
       </c>
       <c r="K859" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="L859" s="5" t="s">
         <v>23</v>
@@ -57336,7 +57333,7 @@
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B860" s="3" t="n">
         <v>0</v>
@@ -57354,10 +57351,10 @@
         <v>39</v>
       </c>
       <c r="G860" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H860" s="3" t="s">
         <v>1690</v>
-      </c>
-      <c r="H860" s="3" t="s">
-        <v>1691</v>
       </c>
       <c r="I860" s="3" t="n">
         <v>1999</v>
@@ -57366,7 +57363,7 @@
         <v>75</v>
       </c>
       <c r="K860" s="5" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="L860" s="5" t="s">
         <v>23</v>
@@ -57395,7 +57392,7 @@
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B861" s="3" t="n">
         <v>0</v>
@@ -57413,10 +57410,10 @@
         <v>39</v>
       </c>
       <c r="G861" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H861" s="3" t="s">
         <v>1690</v>
-      </c>
-      <c r="H861" s="3" t="s">
-        <v>1691</v>
       </c>
       <c r="I861" s="3" t="n">
         <v>1999</v>
@@ -57425,7 +57422,7 @@
         <v>75</v>
       </c>
       <c r="K861" s="5" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="L861" s="5" t="s">
         <v>23</v>
@@ -57454,7 +57451,7 @@
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B862" s="3" t="n">
         <v>0</v>
@@ -57472,10 +57469,10 @@
         <v>39</v>
       </c>
       <c r="G862" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H862" s="3" t="s">
         <v>1690</v>
-      </c>
-      <c r="H862" s="3" t="s">
-        <v>1691</v>
       </c>
       <c r="I862" s="3" t="n">
         <v>1999</v>
@@ -57484,7 +57481,7 @@
         <v>75</v>
       </c>
       <c r="K862" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="L862" s="5" t="s">
         <v>306</v>
@@ -57513,7 +57510,7 @@
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B863" s="3" t="n">
         <v>0</v>
@@ -57531,10 +57528,10 @@
         <v>39</v>
       </c>
       <c r="G863" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H863" s="3" t="s">
         <v>1690</v>
-      </c>
-      <c r="H863" s="3" t="s">
-        <v>1691</v>
       </c>
       <c r="I863" s="3" t="n">
         <v>1999</v>
@@ -57543,7 +57540,7 @@
         <v>75</v>
       </c>
       <c r="K863" s="5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="L863" s="5" t="s">
         <v>62</v>
@@ -57572,7 +57569,7 @@
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B864" s="3" t="n">
         <v>0</v>
@@ -57590,10 +57587,10 @@
         <v>39</v>
       </c>
       <c r="G864" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H864" s="3" t="s">
         <v>1690</v>
-      </c>
-      <c r="H864" s="3" t="s">
-        <v>1691</v>
       </c>
       <c r="I864" s="3" t="n">
         <v>1999</v>
@@ -57602,7 +57599,7 @@
         <v>75</v>
       </c>
       <c r="K864" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="L864" s="5" t="s">
         <v>62</v>
@@ -57631,7 +57628,7 @@
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B865" s="2" t="n">
         <v>0</v>
@@ -57640,7 +57637,7 @@
         <v>924</v>
       </c>
       <c r="D865" s="4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E865" s="3" t="s">
         <v>22</v>
@@ -57661,7 +57658,7 @@
         <v>216</v>
       </c>
       <c r="K865" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L865" s="5" t="s">
         <v>23</v>
@@ -57690,7 +57687,7 @@
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B866" s="3" t="n">
         <v>0</v>
@@ -57749,7 +57746,7 @@
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B867" s="2" t="n">
         <v>0</v>
@@ -57758,10 +57755,10 @@
         <v>34</v>
       </c>
       <c r="D867" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E867" s="3" t="s">
         <v>1699</v>
-      </c>
-      <c r="E867" s="3" t="s">
-        <v>1700</v>
       </c>
       <c r="F867" s="3" t="s">
         <v>22</v>
@@ -57776,10 +57773,10 @@
         <v>1991</v>
       </c>
       <c r="J867" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K867" s="6" t="s">
         <v>1701</v>
-      </c>
-      <c r="K867" s="6" t="s">
-        <v>1702</v>
       </c>
       <c r="L867" s="5" t="s">
         <v>38</v>
@@ -57808,7 +57805,7 @@
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B868" s="2" t="n">
         <v>0</v>
@@ -57817,7 +57814,7 @@
         <v>113</v>
       </c>
       <c r="D868" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E868" s="3" t="s">
         <v>22</v>
@@ -57835,13 +57832,13 @@
         <v>2004</v>
       </c>
       <c r="J868" s="5" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="K868" s="5" t="s">
         <v>113</v>
       </c>
       <c r="L868" s="5" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="M868" s="5" t="s">
         <v>22</v>
@@ -57867,7 +57864,7 @@
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B869" s="2" t="n">
         <v>0</v>
@@ -57876,7 +57873,7 @@
         <v>332</v>
       </c>
       <c r="D869" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E869" s="3" t="s">
         <v>22</v>
@@ -57894,13 +57891,13 @@
         <v>2004</v>
       </c>
       <c r="J869" s="5" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="K869" s="5" t="s">
         <v>332</v>
       </c>
       <c r="L869" s="5" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="M869" s="5" t="s">
         <v>22</v>
@@ -57926,7 +57923,7 @@
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B870" s="2" t="n">
         <v>0</v>
@@ -57985,7 +57982,7 @@
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B871" s="2" t="n">
         <v>0</v>
@@ -58044,7 +58041,7 @@
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B872" s="2" t="n">
         <v>0</v>
@@ -58103,7 +58100,7 @@
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B873" s="2" t="n">
         <v>0</v>
@@ -58112,10 +58109,10 @@
         <v>658</v>
       </c>
       <c r="D873" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E873" s="3" t="s">
         <v>1709</v>
-      </c>
-      <c r="E873" s="3" t="s">
-        <v>1710</v>
       </c>
       <c r="F873" s="3" t="s">
         <v>22</v>
@@ -58133,10 +58130,10 @@
         <v>699</v>
       </c>
       <c r="K873" s="6" t="s">
+        <v>1710</v>
+      </c>
+      <c r="L873" s="5" t="s">
         <v>1711</v>
-      </c>
-      <c r="L873" s="5" t="s">
-        <v>1712</v>
       </c>
       <c r="M873" s="5" t="s">
         <v>27</v>
@@ -58162,7 +58159,7 @@
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B874" s="2" t="n">
         <v>0</v>
@@ -58171,7 +58168,7 @@
         <v>30</v>
       </c>
       <c r="D874" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E874" s="3" t="s">
         <v>22</v>
@@ -58192,7 +58189,7 @@
         <v>866</v>
       </c>
       <c r="K874" s="5" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="L874" s="5" t="s">
         <v>314</v>
@@ -58221,7 +58218,7 @@
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="4" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B875" s="2" t="n">
         <v>0</v>
@@ -58230,7 +58227,7 @@
         <v>30</v>
       </c>
       <c r="D875" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E875" s="3" t="s">
         <v>22</v>
@@ -58248,10 +58245,10 @@
         <v>2015</v>
       </c>
       <c r="J875" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="K875" s="5" t="s">
         <v>1718</v>
-      </c>
-      <c r="K875" s="5" t="s">
-        <v>1719</v>
       </c>
       <c r="L875" s="5" t="s">
         <v>23</v>
@@ -58280,7 +58277,7 @@
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B876" s="2" t="n">
         <v>0</v>
@@ -58339,7 +58336,7 @@
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B877" s="2" t="n">
         <v>0</v>
@@ -58348,19 +58345,19 @@
         <v>78</v>
       </c>
       <c r="D877" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E877" s="3" t="s">
         <v>1722</v>
       </c>
-      <c r="E877" s="3" t="s">
+      <c r="F877" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G877" s="3" t="s">
         <v>1723</v>
       </c>
-      <c r="F877" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G877" s="3" t="s">
+      <c r="H877" s="3" t="s">
         <v>1724</v>
-      </c>
-      <c r="H877" s="3" t="s">
-        <v>1725</v>
       </c>
       <c r="I877" s="3" t="n">
         <v>2019</v>
@@ -58369,7 +58366,7 @@
         <v>92</v>
       </c>
       <c r="K877" s="5" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="L877" s="5" t="s">
         <v>62</v>
@@ -58381,7 +58378,7 @@
         <v>22</v>
       </c>
       <c r="O877" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="P877" s="5" t="s">
         <v>360</v>
@@ -58398,7 +58395,7 @@
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B878" s="2" t="n">
         <v>0</v>
@@ -58407,19 +58404,19 @@
         <v>58</v>
       </c>
       <c r="D878" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E878" s="3" t="s">
         <v>1722</v>
       </c>
-      <c r="E878" s="3" t="s">
+      <c r="F878" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G878" s="3" t="s">
         <v>1723</v>
       </c>
-      <c r="F878" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G878" s="3" t="s">
+      <c r="H878" s="3" t="s">
         <v>1724</v>
-      </c>
-      <c r="H878" s="3" t="s">
-        <v>1725</v>
       </c>
       <c r="I878" s="3" t="n">
         <v>2019</v>
@@ -58428,7 +58425,7 @@
         <v>92</v>
       </c>
       <c r="K878" s="5" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="L878" s="5" t="s">
         <v>62</v>
@@ -58440,7 +58437,7 @@
         <v>22</v>
       </c>
       <c r="O878" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="P878" s="5" t="s">
         <v>360</v>
@@ -58457,7 +58454,7 @@
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B879" s="2" t="n">
         <v>0</v>
@@ -58466,19 +58463,19 @@
         <v>64</v>
       </c>
       <c r="D879" s="4" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E879" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F879" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G879" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H879" s="3" t="s">
         <v>1724</v>
-      </c>
-      <c r="H879" s="3" t="s">
-        <v>1725</v>
       </c>
       <c r="I879" s="3" t="n">
         <v>2019</v>
@@ -58487,7 +58484,7 @@
         <v>92</v>
       </c>
       <c r="K879" s="5" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="L879" s="5" t="s">
         <v>62</v>
@@ -58499,7 +58496,7 @@
         <v>22</v>
       </c>
       <c r="O879" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="P879" s="5" t="s">
         <v>360</v>
@@ -58516,16 +58513,16 @@
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B880" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C880" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D880" s="4" t="s">
         <v>1729</v>
-      </c>
-      <c r="D880" s="4" t="s">
-        <v>1730</v>
       </c>
       <c r="E880" s="3" t="s">
         <v>492</v>
@@ -58537,16 +58534,16 @@
         <v>23</v>
       </c>
       <c r="H880" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I880" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="J880" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="K880" s="5" t="s">
         <v>1732</v>
-      </c>
-      <c r="K880" s="5" t="s">
-        <v>1733</v>
       </c>
       <c r="L880" s="5" t="s">
         <v>77</v>
@@ -58575,16 +58572,16 @@
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B881" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D881" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E881" s="3" t="s">
         <v>492</v>
@@ -58596,16 +58593,16 @@
         <v>23</v>
       </c>
       <c r="H881" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I881" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="J881" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="K881" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="L881" s="5" t="s">
         <v>77</v>
@@ -58634,7 +58631,7 @@
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="4" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B882" s="2" t="n">
         <v>0</v>
@@ -58643,7 +58640,7 @@
         <v>64</v>
       </c>
       <c r="D882" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E882" s="3" t="s">
         <v>22</v>
@@ -58664,7 +58661,7 @@
         <v>75</v>
       </c>
       <c r="K882" s="5" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="L882" s="5" t="s">
         <v>185</v>
@@ -58693,7 +58690,7 @@
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="4" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B883" s="2" t="n">
         <v>0</v>
@@ -58752,7 +58749,7 @@
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="4" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B884" s="2" t="n">
         <v>0</v>
@@ -58811,7 +58808,7 @@
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B885" s="2" t="n">
         <v>0</v>
@@ -58820,10 +58817,10 @@
         <v>64</v>
       </c>
       <c r="D885" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E885" s="3" t="s">
         <v>1742</v>
-      </c>
-      <c r="E885" s="3" t="s">
-        <v>1743</v>
       </c>
       <c r="F885" s="3" t="s">
         <v>22</v>
@@ -58841,7 +58838,7 @@
         <v>581</v>
       </c>
       <c r="K885" s="5" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="L885" s="5" t="s">
         <v>126</v>
@@ -58870,7 +58867,7 @@
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B886" s="2" t="n">
         <v>0</v>
@@ -58879,10 +58876,10 @@
         <v>20</v>
       </c>
       <c r="D886" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E886" s="3" t="s">
         <v>1742</v>
-      </c>
-      <c r="E886" s="3" t="s">
-        <v>1743</v>
       </c>
       <c r="F886" s="3" t="s">
         <v>22</v>
@@ -58900,7 +58897,7 @@
         <v>581</v>
       </c>
       <c r="K886" s="5" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="L886" s="5" t="s">
         <v>185</v>
@@ -58929,7 +58926,7 @@
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B887" s="2" t="n">
         <v>0</v>
@@ -58988,7 +58985,7 @@
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B888" s="2" t="n">
         <v>0</v>
@@ -59047,7 +59044,7 @@
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B889" s="2" t="n">
         <v>0</v>
@@ -59106,7 +59103,7 @@
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B890" s="2" t="n">
         <v>0</v>
@@ -59165,7 +59162,7 @@
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B891" s="2" t="n">
         <v>0</v>
@@ -59224,7 +59221,7 @@
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B892" s="2" t="n">
         <v>0</v>
@@ -59242,10 +59239,10 @@
         <v>39</v>
       </c>
       <c r="G892" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H892" s="3" t="s">
         <v>1750</v>
-      </c>
-      <c r="H892" s="3" t="s">
-        <v>1751</v>
       </c>
       <c r="I892" s="3" t="n">
         <v>1999</v>
@@ -59254,7 +59251,7 @@
         <v>75</v>
       </c>
       <c r="K892" s="5" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="L892" s="5" t="s">
         <v>23</v>
@@ -59283,7 +59280,7 @@
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B893" s="2" t="n">
         <v>0</v>
@@ -59301,10 +59298,10 @@
         <v>39</v>
       </c>
       <c r="G893" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H893" s="3" t="s">
         <v>1750</v>
-      </c>
-      <c r="H893" s="3" t="s">
-        <v>1751</v>
       </c>
       <c r="I893" s="3" t="n">
         <v>1999</v>
@@ -59313,7 +59310,7 @@
         <v>75</v>
       </c>
       <c r="K893" s="5" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="L893" s="5" t="s">
         <v>23</v>
@@ -59342,7 +59339,7 @@
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B894" s="2" t="n">
         <v>0</v>
@@ -59360,10 +59357,10 @@
         <v>39</v>
       </c>
       <c r="G894" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H894" s="3" t="s">
         <v>1750</v>
-      </c>
-      <c r="H894" s="3" t="s">
-        <v>1751</v>
       </c>
       <c r="I894" s="3" t="n">
         <v>1999</v>
@@ -59372,7 +59369,7 @@
         <v>75</v>
       </c>
       <c r="K894" s="5" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="L894" s="5" t="s">
         <v>306</v>
@@ -59401,7 +59398,7 @@
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B895" s="2" t="n">
         <v>0</v>
@@ -59419,10 +59416,10 @@
         <v>39</v>
       </c>
       <c r="G895" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H895" s="3" t="s">
         <v>1750</v>
-      </c>
-      <c r="H895" s="3" t="s">
-        <v>1751</v>
       </c>
       <c r="I895" s="3" t="n">
         <v>1999</v>
@@ -59431,7 +59428,7 @@
         <v>75</v>
       </c>
       <c r="K895" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="L895" s="5" t="s">
         <v>62</v>
@@ -59460,7 +59457,7 @@
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B896" s="2" t="n">
         <v>0</v>
@@ -59478,10 +59475,10 @@
         <v>39</v>
       </c>
       <c r="G896" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H896" s="3" t="s">
         <v>1750</v>
-      </c>
-      <c r="H896" s="3" t="s">
-        <v>1751</v>
       </c>
       <c r="I896" s="3" t="n">
         <v>1999</v>
@@ -59490,7 +59487,7 @@
         <v>75</v>
       </c>
       <c r="K896" s="5" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="L896" s="5" t="s">
         <v>62</v>
@@ -59519,7 +59516,7 @@
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B897" s="2" t="n">
         <v>0</v>
@@ -59578,7 +59575,7 @@
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B898" s="2" t="n">
         <v>0</v>
@@ -59637,7 +59634,7 @@
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B899" s="2" t="n">
         <v>0</v>
@@ -59696,7 +59693,7 @@
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B900" s="2" t="n">
         <v>0</v>
@@ -59755,7 +59752,7 @@
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B901" s="2" t="n">
         <v>0</v>
@@ -59782,10 +59779,10 @@
         <v>2002</v>
       </c>
       <c r="J901" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K901" s="5" t="s">
         <v>1757</v>
-      </c>
-      <c r="K901" s="5" t="s">
-        <v>1758</v>
       </c>
       <c r="L901" s="5" t="s">
         <v>23</v>
@@ -59814,7 +59811,7 @@
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B902" s="2" t="n">
         <v>0</v>
@@ -59823,7 +59820,7 @@
         <v>20</v>
       </c>
       <c r="D902" s="10" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E902" s="3" t="s">
         <v>89</v>
@@ -59832,10 +59829,10 @@
         <v>39</v>
       </c>
       <c r="G902" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H902" s="3" t="s">
         <v>1760</v>
-      </c>
-      <c r="H902" s="3" t="s">
-        <v>1761</v>
       </c>
       <c r="I902" s="3" t="n">
         <v>1994</v>
@@ -59873,7 +59870,7 @@
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="4" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B903" s="2" t="n">
         <v>0</v>
@@ -59932,7 +59929,7 @@
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="4" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B904" s="2" t="n">
         <v>0</v>
@@ -59991,7 +59988,7 @@
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="4" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B905" s="2" t="n">
         <v>0</v>
@@ -60000,7 +59997,7 @@
         <v>64</v>
       </c>
       <c r="D905" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E905" s="3" t="s">
         <v>22</v>
@@ -60050,7 +60047,7 @@
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="4" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B906" s="2" t="n">
         <v>0</v>
@@ -60109,7 +60106,7 @@
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="4" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B907" s="2" t="n">
         <v>0</v>
@@ -60168,7 +60165,7 @@
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B908" s="2" t="n">
         <v>0</v>
@@ -60177,7 +60174,7 @@
         <v>108</v>
       </c>
       <c r="D908" s="4" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E908" s="3" t="s">
         <v>74</v>
@@ -60195,7 +60192,7 @@
         <v>1997</v>
       </c>
       <c r="J908" s="5" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="K908" s="5" t="s">
         <v>23</v>
@@ -60227,7 +60224,7 @@
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B909" s="2" t="n">
         <v>0</v>
@@ -60236,7 +60233,7 @@
         <v>134</v>
       </c>
       <c r="D909" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E909" s="3" t="s">
         <v>74</v>
@@ -60257,7 +60254,7 @@
         <v>75</v>
       </c>
       <c r="K909" s="5" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="L909" s="5" t="s">
         <v>23</v>
@@ -60286,7 +60283,7 @@
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="4" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B910" s="2" t="n">
         <v>0</v>
@@ -60345,7 +60342,7 @@
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B911" s="2" t="n">
         <v>0</v>
@@ -60354,7 +60351,7 @@
         <v>78</v>
       </c>
       <c r="D911" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E911" s="3" t="s">
         <v>74</v>
@@ -60372,10 +60369,10 @@
         <v>2016</v>
       </c>
       <c r="J911" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K911" s="10" t="s">
         <v>1775</v>
-      </c>
-      <c r="K911" s="10" t="s">
-        <v>1776</v>
       </c>
       <c r="L911" s="3" t="s">
         <v>682</v>
@@ -60404,7 +60401,7 @@
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B912" s="2" t="n">
         <v>0</v>
@@ -60413,7 +60410,7 @@
         <v>58</v>
       </c>
       <c r="D912" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E912" s="3" t="s">
         <v>74</v>
@@ -60431,10 +60428,10 @@
         <v>2016</v>
       </c>
       <c r="J912" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K912" s="10" t="s">
         <v>1775</v>
-      </c>
-      <c r="K912" s="10" t="s">
-        <v>1776</v>
       </c>
       <c r="L912" s="3" t="s">
         <v>682</v>
@@ -60463,7 +60460,7 @@
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B913" s="2" t="n">
         <v>0</v>
@@ -60472,7 +60469,7 @@
         <v>30</v>
       </c>
       <c r="D913" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E913" s="3" t="s">
         <v>74</v>
@@ -60490,10 +60487,10 @@
         <v>2016</v>
       </c>
       <c r="J913" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K913" s="10" t="s">
         <v>1775</v>
-      </c>
-      <c r="K913" s="10" t="s">
-        <v>1776</v>
       </c>
       <c r="L913" s="3" t="s">
         <v>682</v>
@@ -60522,7 +60519,7 @@
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B914" s="2" t="n">
         <v>0</v>
@@ -60581,7 +60578,7 @@
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B915" s="2" t="n">
         <v>0</v>
@@ -60640,7 +60637,7 @@
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="4" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B916" s="2" t="n">
         <v>0</v>
@@ -60649,7 +60646,7 @@
         <v>113</v>
       </c>
       <c r="D916" s="4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E916" s="3" t="s">
         <v>22</v>
@@ -60667,13 +60664,13 @@
         <v>1998</v>
       </c>
       <c r="J916" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="K916" s="5" t="s">
         <v>1780</v>
       </c>
-      <c r="K916" s="5" t="s">
+      <c r="L916" s="5" t="s">
         <v>1781</v>
-      </c>
-      <c r="L916" s="5" t="s">
-        <v>1782</v>
       </c>
       <c r="M916" s="5" t="s">
         <v>39</v>
@@ -60699,7 +60696,7 @@
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="4" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B917" s="2" t="n">
         <v>0</v>
@@ -60758,7 +60755,7 @@
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="4" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B918" s="2" t="n">
         <v>0</v>
@@ -60817,7 +60814,7 @@
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="4" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B919" s="2" t="n">
         <v>0</v>
@@ -60826,7 +60823,7 @@
         <v>113</v>
       </c>
       <c r="D919" s="4" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E919" s="3" t="s">
         <v>22</v>
@@ -60844,10 +60841,10 @@
         <v>2010</v>
       </c>
       <c r="J919" s="5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="K919" s="5" t="s">
         <v>1785</v>
-      </c>
-      <c r="K919" s="5" t="s">
-        <v>1786</v>
       </c>
       <c r="L919" s="5" t="s">
         <v>23</v>
@@ -60876,7 +60873,7 @@
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="7" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B920" s="8" t="n">
         <v>0</v>
@@ -60935,7 +60932,7 @@
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B921" s="2" t="n">
         <v>0</v>
@@ -60944,7 +60941,7 @@
         <v>113</v>
       </c>
       <c r="D921" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E921" s="3" t="s">
         <v>22</v>
@@ -60994,7 +60991,7 @@
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B922" s="2" t="n">
         <v>0</v>
@@ -61003,7 +61000,7 @@
         <v>113</v>
       </c>
       <c r="D922" s="4" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E922" s="3" t="s">
         <v>22</v>
@@ -61021,10 +61018,10 @@
         <v>2008</v>
       </c>
       <c r="J922" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K922" s="5" t="s">
         <v>1790</v>
-      </c>
-      <c r="K922" s="5" t="s">
-        <v>1791</v>
       </c>
       <c r="L922" s="5" t="s">
         <v>185</v>
@@ -61053,7 +61050,7 @@
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B923" s="2" t="n">
         <v>0</v>
@@ -61062,10 +61059,10 @@
         <v>113</v>
       </c>
       <c r="D923" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E923" s="3" t="s">
         <v>1792</v>
-      </c>
-      <c r="E923" s="3" t="s">
-        <v>1793</v>
       </c>
       <c r="F923" s="3" t="s">
         <v>22</v>
@@ -61083,10 +61080,10 @@
         <v>244</v>
       </c>
       <c r="K923" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L923" s="5" t="s">
         <v>1794</v>
-      </c>
-      <c r="L923" s="5" t="s">
-        <v>1795</v>
       </c>
       <c r="M923" s="5" t="s">
         <v>27</v>
@@ -61112,7 +61109,7 @@
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B924" s="2" t="n">
         <v>0</v>
@@ -61121,10 +61118,10 @@
         <v>113</v>
       </c>
       <c r="D924" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E924" s="3" t="s">
         <v>1796</v>
-      </c>
-      <c r="E924" s="3" t="s">
-        <v>1797</v>
       </c>
       <c r="F924" s="3" t="s">
         <v>22</v>
@@ -61139,13 +61136,13 @@
         <v>2013</v>
       </c>
       <c r="J924" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K924" s="5" t="s">
         <v>1798</v>
       </c>
-      <c r="K924" s="5" t="s">
-        <v>1799</v>
-      </c>
       <c r="L924" s="5" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="M924" s="5" t="s">
         <v>27</v>
@@ -61171,7 +61168,7 @@
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B925" s="2" t="n">
         <v>0</v>
@@ -61180,10 +61177,10 @@
         <v>113</v>
       </c>
       <c r="D925" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E925" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F925" s="3" t="s">
         <v>22</v>
@@ -61201,10 +61198,10 @@
         <v>866</v>
       </c>
       <c r="K925" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L925" s="5" t="s">
         <v>1794</v>
-      </c>
-      <c r="L925" s="5" t="s">
-        <v>1795</v>
       </c>
       <c r="M925" s="5" t="s">
         <v>27</v>
@@ -61230,7 +61227,7 @@
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B926" s="2" t="n">
         <v>0</v>
@@ -61289,7 +61286,7 @@
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B927" s="2" t="n">
         <v>0</v>
@@ -61348,7 +61345,7 @@
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B928" s="2" t="n">
         <v>0</v>
@@ -61407,7 +61404,7 @@
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B929" s="2" t="n">
         <v>0</v>
@@ -61466,7 +61463,7 @@
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B930" s="2" t="n">
         <v>0</v>
@@ -61525,7 +61522,7 @@
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="9" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B931" s="2" t="n">
         <v>0</v>
@@ -61584,7 +61581,7 @@
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="4" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B932" s="2" t="n">
         <v>0</v>
@@ -61643,7 +61640,7 @@
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="7" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B933" s="8" t="n">
         <v>0</v>
@@ -61652,7 +61649,7 @@
         <v>20</v>
       </c>
       <c r="D933" s="7" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E933" s="5" t="s">
         <v>89</v>
@@ -61661,10 +61658,10 @@
         <v>39</v>
       </c>
       <c r="G933" s="5" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H933" s="5" t="s">
         <v>1805</v>
-      </c>
-      <c r="H933" s="5" t="s">
-        <v>1806</v>
       </c>
       <c r="I933" s="5" t="n">
         <v>2011</v>
@@ -61673,7 +61670,7 @@
         <v>83</v>
       </c>
       <c r="K933" s="5" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L933" s="5" t="s">
         <v>23</v>
@@ -61702,7 +61699,7 @@
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B934" s="2" t="n">
         <v>0</v>
@@ -61711,7 +61708,7 @@
         <v>20</v>
       </c>
       <c r="D934" s="4" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E934" s="3" t="s">
         <v>89</v>
@@ -61720,10 +61717,10 @@
         <v>39</v>
       </c>
       <c r="G934" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H934" s="3" t="s">
         <v>1805</v>
-      </c>
-      <c r="H934" s="3" t="s">
-        <v>1806</v>
       </c>
       <c r="I934" s="3" t="n">
         <v>2011</v>
@@ -61732,7 +61729,7 @@
         <v>216</v>
       </c>
       <c r="K934" s="3" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L934" s="3" t="s">
         <v>23</v>
@@ -61761,7 +61758,7 @@
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="4" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B935" s="2" t="n">
         <v>0</v>
@@ -61820,7 +61817,7 @@
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="7" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B936" s="8" t="n">
         <v>0</v>
@@ -61879,7 +61876,7 @@
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B937" s="2" t="n">
         <v>0</v>
@@ -61927,7 +61924,7 @@
         <v>197</v>
       </c>
       <c r="Q937" s="5" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R937" s="5" t="s">
         <v>22</v>
@@ -61938,7 +61935,7 @@
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B938" s="2" t="n">
         <v>0</v>
@@ -61947,7 +61944,7 @@
         <v>58</v>
       </c>
       <c r="D938" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E938" s="3" t="s">
         <v>22</v>
@@ -61997,7 +61994,7 @@
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B939" s="2" t="n">
         <v>0</v>
@@ -62006,7 +62003,7 @@
         <v>64</v>
       </c>
       <c r="D939" s="4" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E939" s="3" t="s">
         <v>22</v>
@@ -62056,7 +62053,7 @@
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B940" s="2" t="n">
         <v>0</v>
@@ -62065,7 +62062,7 @@
         <v>130</v>
       </c>
       <c r="D940" s="4" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E940" s="3" t="s">
         <v>22</v>
@@ -62115,16 +62112,16 @@
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B941" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C941" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D941" s="4" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E941" s="3" t="s">
         <v>22</v>
@@ -62174,16 +62171,16 @@
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B942" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C942" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D942" s="4" t="s">
         <v>1815</v>
-      </c>
-      <c r="D942" s="4" t="s">
-        <v>1816</v>
       </c>
       <c r="E942" s="3" t="s">
         <v>345</v>
@@ -62204,7 +62201,7 @@
         <v>83</v>
       </c>
       <c r="K942" s="5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="L942" s="5" t="s">
         <v>23</v>
@@ -62233,7 +62230,7 @@
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B943" s="2" t="n">
         <v>0</v>
@@ -62292,7 +62289,7 @@
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B944" s="2" t="n">
         <v>0</v>
@@ -62351,7 +62348,7 @@
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B945" s="2" t="n">
         <v>0</v>
@@ -62410,7 +62407,7 @@
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B946" s="2" t="n">
         <v>0</v>
@@ -62469,7 +62466,7 @@
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="9" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B947" s="2" t="n">
         <v>0</v>
@@ -62478,7 +62475,7 @@
         <v>108</v>
       </c>
       <c r="D947" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E947" s="3" t="s">
         <v>492</v>
@@ -62487,10 +62484,10 @@
         <v>39</v>
       </c>
       <c r="G947" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H947" s="3" t="s">
         <v>1820</v>
-      </c>
-      <c r="H947" s="3" t="s">
-        <v>1821</v>
       </c>
       <c r="I947" s="3" t="n">
         <v>2014</v>
@@ -62499,7 +62496,7 @@
         <v>83</v>
       </c>
       <c r="K947" s="6" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L947" s="5" t="s">
         <v>719</v>
@@ -62528,7 +62525,7 @@
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="9" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B948" s="8" t="n">
         <v>0</v>
@@ -62537,7 +62534,7 @@
         <v>20</v>
       </c>
       <c r="D948" s="7" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E948" s="5" t="s">
         <v>492</v>
@@ -62546,10 +62543,10 @@
         <v>39</v>
       </c>
       <c r="G948" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H948" s="5" t="s">
         <v>1820</v>
-      </c>
-      <c r="H948" s="5" t="s">
-        <v>1821</v>
       </c>
       <c r="I948" s="5" t="n">
         <v>2014</v>
@@ -62558,7 +62555,7 @@
         <v>83</v>
       </c>
       <c r="K948" s="6" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="L948" s="5" t="s">
         <v>255</v>
@@ -62587,7 +62584,7 @@
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="9" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B949" s="2" t="n">
         <v>0</v>
@@ -62596,7 +62593,7 @@
         <v>1181</v>
       </c>
       <c r="D949" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E949" s="3" t="s">
         <v>492</v>
@@ -62605,10 +62602,10 @@
         <v>39</v>
       </c>
       <c r="G949" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H949" s="3" t="s">
         <v>1820</v>
-      </c>
-      <c r="H949" s="3" t="s">
-        <v>1821</v>
       </c>
       <c r="I949" s="3" t="n">
         <v>2014</v>
@@ -62617,7 +62614,7 @@
         <v>83</v>
       </c>
       <c r="K949" s="6" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="L949" s="5" t="s">
         <v>23</v>
@@ -62646,7 +62643,7 @@
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="9" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B950" s="2" t="n">
         <v>0</v>
@@ -62655,7 +62652,7 @@
         <v>30</v>
       </c>
       <c r="D950" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E950" s="3" t="s">
         <v>492</v>
@@ -62664,10 +62661,10 @@
         <v>39</v>
       </c>
       <c r="G950" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H950" s="3" t="s">
         <v>1820</v>
-      </c>
-      <c r="H950" s="3" t="s">
-        <v>1821</v>
       </c>
       <c r="I950" s="3" t="n">
         <v>2014</v>
@@ -62676,7 +62673,7 @@
         <v>83</v>
       </c>
       <c r="K950" s="6" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="L950" s="5" t="s">
         <v>23</v>
@@ -62705,7 +62702,7 @@
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="9" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B951" s="2" t="n">
         <v>0</v>
@@ -62714,7 +62711,7 @@
         <v>58</v>
       </c>
       <c r="D951" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E951" s="3" t="s">
         <v>492</v>
@@ -62723,10 +62720,10 @@
         <v>39</v>
       </c>
       <c r="G951" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H951" s="3" t="s">
         <v>1820</v>
-      </c>
-      <c r="H951" s="3" t="s">
-        <v>1821</v>
       </c>
       <c r="I951" s="3" t="n">
         <v>2014</v>
@@ -62735,7 +62732,7 @@
         <v>83</v>
       </c>
       <c r="K951" s="6" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="L951" s="5" t="s">
         <v>62</v>
@@ -62764,7 +62761,7 @@
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="9" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B952" s="2" t="n">
         <v>0</v>
@@ -62773,7 +62770,7 @@
         <v>78</v>
       </c>
       <c r="D952" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E952" s="3" t="s">
         <v>492</v>
@@ -62782,10 +62779,10 @@
         <v>39</v>
       </c>
       <c r="G952" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H952" s="3" t="s">
         <v>1820</v>
-      </c>
-      <c r="H952" s="3" t="s">
-        <v>1821</v>
       </c>
       <c r="I952" s="3" t="n">
         <v>2014</v>
@@ -62794,7 +62791,7 @@
         <v>83</v>
       </c>
       <c r="K952" s="6" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="L952" s="5" t="s">
         <v>62</v>
@@ -62823,7 +62820,7 @@
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="9" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B953" s="2" t="n">
         <v>0</v>
@@ -62832,7 +62829,7 @@
         <v>64</v>
       </c>
       <c r="D953" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E953" s="3" t="s">
         <v>492</v>
@@ -62841,10 +62838,10 @@
         <v>39</v>
       </c>
       <c r="G953" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H953" s="3" t="s">
         <v>1820</v>
-      </c>
-      <c r="H953" s="3" t="s">
-        <v>1821</v>
       </c>
       <c r="I953" s="3" t="n">
         <v>2014</v>
@@ -62853,7 +62850,7 @@
         <v>83</v>
       </c>
       <c r="K953" s="6" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="L953" s="5" t="s">
         <v>982</v>
@@ -62882,7 +62879,7 @@
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B954" s="2" t="n">
         <v>0</v>
@@ -62891,7 +62888,7 @@
         <v>108</v>
       </c>
       <c r="D954" s="4" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E954" s="3" t="s">
         <v>492</v>
@@ -62903,7 +62900,7 @@
         <v>23</v>
       </c>
       <c r="H954" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="I954" s="3" t="n">
         <v>2015</v>
@@ -62941,7 +62938,7 @@
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="4" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B955" s="2" t="n">
         <v>0</v>
@@ -63000,7 +62997,7 @@
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B956" s="2" t="n">
         <v>0</v>
@@ -63059,7 +63056,7 @@
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="4" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B957" s="2" t="n">
         <v>0</v>
@@ -63118,7 +63115,7 @@
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="4" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B958" s="2" t="n">
         <v>0</v>
@@ -63177,7 +63174,7 @@
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B959" s="2" t="n">
         <v>0</v>
@@ -63236,7 +63233,7 @@
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="4" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B960" s="2" t="n">
         <v>0</v>
@@ -63295,7 +63292,7 @@
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="4" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B961" s="2" t="n">
         <v>0</v>
@@ -63354,7 +63351,7 @@
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B962" s="2" t="n">
         <v>0</v>
@@ -63413,7 +63410,7 @@
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="4" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B963" s="2" t="n">
         <v>0</v>
@@ -63422,7 +63419,7 @@
         <v>30</v>
       </c>
       <c r="D963" s="4" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E963" s="3" t="s">
         <v>22</v>
@@ -63443,7 +63440,7 @@
         <v>1345</v>
       </c>
       <c r="K963" s="5" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L963" s="5" t="s">
         <v>285</v>
@@ -63472,7 +63469,7 @@
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="4" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B964" s="2" t="n">
         <v>0</v>
@@ -63531,7 +63528,7 @@
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="4" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B965" s="2" t="n">
         <v>0</v>
@@ -63540,7 +63537,7 @@
         <v>30</v>
       </c>
       <c r="D965" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E965" s="3" t="s">
         <v>22</v>
@@ -63558,10 +63555,10 @@
         <v>2005</v>
       </c>
       <c r="J965" s="5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K965" s="5" t="s">
         <v>1841</v>
-      </c>
-      <c r="K965" s="5" t="s">
-        <v>1842</v>
       </c>
       <c r="L965" s="5" t="s">
         <v>23</v>
@@ -63590,7 +63587,7 @@
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="4" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B966" s="2" t="n">
         <v>0</v>
@@ -63599,7 +63596,7 @@
         <v>237</v>
       </c>
       <c r="D966" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E966" s="3" t="s">
         <v>22</v>
@@ -63620,7 +63617,7 @@
         <v>208</v>
       </c>
       <c r="K966" s="5" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="L966" s="5" t="s">
         <v>23</v>
@@ -63649,7 +63646,7 @@
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B967" s="2" t="n">
         <v>0</v>
@@ -63708,7 +63705,7 @@
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B968" s="2" t="n">
         <v>0</v>
@@ -63767,7 +63764,7 @@
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B969" s="2" t="n">
         <v>0</v>
@@ -63785,10 +63782,10 @@
         <v>39</v>
       </c>
       <c r="G969" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H969" s="3" t="s">
         <v>1847</v>
-      </c>
-      <c r="H969" s="3" t="s">
-        <v>1848</v>
       </c>
       <c r="I969" s="3" t="n">
         <v>2004</v>
@@ -63826,7 +63823,7 @@
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B970" s="2" t="n">
         <v>0</v>
@@ -63844,10 +63841,10 @@
         <v>39</v>
       </c>
       <c r="G970" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H970" s="3" t="s">
         <v>1847</v>
-      </c>
-      <c r="H970" s="3" t="s">
-        <v>1848</v>
       </c>
       <c r="I970" s="3" t="n">
         <v>2004</v>
@@ -63885,16 +63882,16 @@
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B971" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C971" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D971" s="4" t="s">
         <v>1585</v>
-      </c>
-      <c r="D971" s="4" t="s">
-        <v>1586</v>
       </c>
       <c r="E971" s="3" t="s">
         <v>103</v>
@@ -63906,16 +63903,16 @@
         <v>23</v>
       </c>
       <c r="H971" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I971" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="J971" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K971" s="5" t="s">
         <v>1587</v>
-      </c>
-      <c r="K971" s="5" t="s">
-        <v>1588</v>
       </c>
       <c r="L971" s="5" t="s">
         <v>23</v>
@@ -63944,7 +63941,7 @@
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B972" s="2" t="n">
         <v>0</v>
@@ -63953,7 +63950,7 @@
         <v>20</v>
       </c>
       <c r="D972" s="4" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E972" s="3" t="s">
         <v>22</v>
@@ -63971,10 +63968,10 @@
         <v>2004</v>
       </c>
       <c r="J972" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K972" s="5" t="s">
         <v>1587</v>
-      </c>
-      <c r="K972" s="5" t="s">
-        <v>1588</v>
       </c>
       <c r="L972" s="5" t="s">
         <v>23</v>
@@ -64003,7 +64000,7 @@
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B973" s="2" t="n">
         <v>0</v>
@@ -64021,10 +64018,10 @@
         <v>39</v>
       </c>
       <c r="G973" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H973" s="3" t="s">
         <v>1847</v>
-      </c>
-      <c r="H973" s="3" t="s">
-        <v>1848</v>
       </c>
       <c r="I973" s="3" t="n">
         <v>2004</v>
@@ -64062,7 +64059,7 @@
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B974" s="2" t="n">
         <v>0</v>
@@ -64121,7 +64118,7 @@
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B975" s="2" t="n">
         <v>0</v>
@@ -64180,7 +64177,7 @@
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B976" s="2" t="n">
         <v>0</v>
@@ -64189,7 +64186,7 @@
         <v>113</v>
       </c>
       <c r="D976" s="4" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E976" s="3" t="s">
         <v>22</v>
@@ -64207,10 +64204,10 @@
         <v>2015</v>
       </c>
       <c r="J976" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="K976" s="5" t="s">
         <v>1852</v>
-      </c>
-      <c r="K976" s="5" t="s">
-        <v>1853</v>
       </c>
       <c r="L976" s="5" t="s">
         <v>23</v>
@@ -64228,7 +64225,7 @@
         <v>28</v>
       </c>
       <c r="Q976" s="5" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="R976" s="5" t="s">
         <v>22</v>
@@ -64239,7 +64236,7 @@
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B977" s="2" t="n">
         <v>0</v>
@@ -64287,7 +64284,7 @@
         <v>360</v>
       </c>
       <c r="Q977" s="5" t="s">
-        <v>1573</v>
+        <v>533</v>
       </c>
       <c r="R977" s="5" t="s">
         <v>22</v>
@@ -64298,7 +64295,7 @@
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B978" s="2" t="n">
         <v>0</v>
@@ -64357,7 +64354,7 @@
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="7" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B979" s="8" t="n">
         <v>0</v>
@@ -64416,7 +64413,7 @@
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B980" s="2" t="n">
         <v>0</v>
@@ -64425,7 +64422,7 @@
         <v>118</v>
       </c>
       <c r="D980" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E980" s="3" t="s">
         <v>22</v>
@@ -64443,10 +64440,10 @@
         <v>2013</v>
       </c>
       <c r="J980" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K980" s="6" t="s">
         <v>1856</v>
-      </c>
-      <c r="K980" s="6" t="s">
-        <v>1857</v>
       </c>
       <c r="L980" s="5" t="s">
         <v>23</v>
@@ -64464,7 +64461,7 @@
         <v>28</v>
       </c>
       <c r="Q980" s="5" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="R980" s="5" t="s">
         <v>39</v>
@@ -64475,7 +64472,7 @@
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B981" s="2" t="n">
         <v>0</v>
@@ -64534,7 +64531,7 @@
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B982" s="2" t="n">
         <v>0</v>
@@ -64593,7 +64590,7 @@
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B983" s="2" t="n">
         <v>0</v>
@@ -64652,7 +64649,7 @@
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B984" s="2" t="n">
         <v>0</v>
@@ -64661,7 +64658,7 @@
         <v>20</v>
       </c>
       <c r="D984" s="4" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E984" s="3" t="s">
         <v>22</v>
@@ -64682,7 +64679,7 @@
         <v>687</v>
       </c>
       <c r="K984" s="5" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="L984" s="5" t="s">
         <v>255</v>
@@ -64694,7 +64691,7 @@
         <v>22</v>
       </c>
       <c r="O984" s="5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="P984" s="5" t="s">
         <v>28</v>
@@ -64711,7 +64708,7 @@
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B985" s="2" t="n">
         <v>0</v>
@@ -64770,7 +64767,7 @@
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B986" s="2" t="n">
         <v>0</v>
@@ -64829,7 +64826,7 @@
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="7" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B987" s="8" t="n">
         <v>0</v>
@@ -64838,19 +64835,19 @@
         <v>34</v>
       </c>
       <c r="D987" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E987" s="5" t="s">
         <v>1865</v>
       </c>
-      <c r="E987" s="5" t="s">
+      <c r="F987" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G987" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="F987" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G987" s="5" t="s">
+      <c r="H987" s="5" t="s">
         <v>1867</v>
-      </c>
-      <c r="H987" s="5" t="s">
-        <v>1868</v>
       </c>
       <c r="I987" s="5" t="n">
         <v>2005</v>
@@ -64859,7 +64856,7 @@
         <v>216</v>
       </c>
       <c r="K987" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L987" s="5" t="s">
         <v>23</v>
@@ -64888,7 +64885,7 @@
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B988" s="2" t="n">
         <v>0</v>
@@ -64897,19 +64894,19 @@
         <v>34</v>
       </c>
       <c r="D988" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E988" s="3" t="s">
         <v>1865</v>
       </c>
-      <c r="E988" s="3" t="s">
+      <c r="F988" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G988" s="3" t="s">
         <v>1866</v>
       </c>
-      <c r="F988" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G988" s="3" t="s">
+      <c r="H988" s="3" t="s">
         <v>1867</v>
-      </c>
-      <c r="H988" s="3" t="s">
-        <v>1868</v>
       </c>
       <c r="I988" s="3" t="n">
         <v>2005</v>
@@ -64918,7 +64915,7 @@
         <v>216</v>
       </c>
       <c r="K988" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L988" s="5" t="s">
         <v>23</v>
@@ -64947,7 +64944,7 @@
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B989" s="2" t="n">
         <v>0</v>
@@ -64956,7 +64953,7 @@
         <v>658</v>
       </c>
       <c r="D989" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E989" s="3" t="s">
         <v>22</v>
@@ -64977,19 +64974,19 @@
         <v>92</v>
       </c>
       <c r="K989" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="L989" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="M989" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N989" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O989" s="5" t="s">
         <v>1872</v>
-      </c>
-      <c r="L989" s="5" t="s">
-        <v>1712</v>
-      </c>
-      <c r="M989" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N989" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O989" s="5" t="s">
-        <v>1873</v>
       </c>
       <c r="P989" s="5" t="s">
         <v>55</v>
@@ -65006,7 +65003,7 @@
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="7" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B990" s="8" t="n">
         <v>0</v>
@@ -65015,7 +65012,7 @@
         <v>658</v>
       </c>
       <c r="D990" s="7" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E990" s="5" t="s">
         <v>22</v>
@@ -65036,10 +65033,10 @@
         <v>92</v>
       </c>
       <c r="K990" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="L990" s="5" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="M990" s="5" t="s">
         <v>27</v>
@@ -65048,7 +65045,7 @@
         <v>22</v>
       </c>
       <c r="O990" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="P990" s="5" t="s">
         <v>55</v>
@@ -65065,28 +65062,28 @@
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B991" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C991" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D991" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E991" s="3" t="s">
         <v>1875</v>
       </c>
-      <c r="E991" s="3" t="s">
+      <c r="F991" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G991" s="3" t="s">
         <v>1876</v>
       </c>
-      <c r="F991" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G991" s="3" t="s">
+      <c r="H991" s="3" t="s">
         <v>1877</v>
-      </c>
-      <c r="H991" s="3" t="s">
-        <v>1878</v>
       </c>
       <c r="I991" s="3" t="n">
         <v>2005</v>
@@ -65095,10 +65092,10 @@
         <v>23</v>
       </c>
       <c r="K991" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L991" s="5" t="s">
         <v>1879</v>
-      </c>
-      <c r="L991" s="5" t="s">
-        <v>1880</v>
       </c>
       <c r="M991" s="5" t="s">
         <v>23</v>
@@ -65124,7 +65121,7 @@
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B992" s="2" t="n">
         <v>0</v>
@@ -65133,19 +65130,19 @@
         <v>658</v>
       </c>
       <c r="D992" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E992" s="3" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F992" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G992" s="3" t="s">
         <v>1881</v>
       </c>
-      <c r="F992" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G992" s="3" t="s">
+      <c r="H992" s="3" t="s">
         <v>1882</v>
-      </c>
-      <c r="H992" s="3" t="s">
-        <v>1883</v>
       </c>
       <c r="I992" s="3" t="n">
         <v>2005</v>
@@ -65154,10 +65151,10 @@
         <v>23</v>
       </c>
       <c r="K992" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L992" s="5" t="s">
         <v>1879</v>
-      </c>
-      <c r="L992" s="5" t="s">
-        <v>1880</v>
       </c>
       <c r="M992" s="5" t="s">
         <v>23</v>
@@ -65183,7 +65180,7 @@
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B993" s="2" t="n">
         <v>0</v>
@@ -65242,7 +65239,7 @@
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B994" s="2" t="n">
         <v>0</v>
@@ -65251,7 +65248,7 @@
         <v>113</v>
       </c>
       <c r="D994" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E994" s="3" t="s">
         <v>22</v>
@@ -65269,10 +65266,10 @@
         <v>2010</v>
       </c>
       <c r="J994" s="5" t="s">
+        <v>1886</v>
+      </c>
+      <c r="K994" s="5" t="s">
         <v>1887</v>
-      </c>
-      <c r="K994" s="5" t="s">
-        <v>1888</v>
       </c>
       <c r="L994" s="5" t="s">
         <v>23</v>
@@ -65301,7 +65298,7 @@
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B995" s="2" t="n">
         <v>0</v>
@@ -65310,7 +65307,7 @@
         <v>134</v>
       </c>
       <c r="D995" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E995" s="3" t="s">
         <v>22</v>
@@ -65328,13 +65325,13 @@
         <v>1991</v>
       </c>
       <c r="J995" s="5" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K995" s="5" t="s">
         <v>1890</v>
       </c>
-      <c r="K995" s="5" t="s">
+      <c r="L995" s="5" t="s">
         <v>1891</v>
-      </c>
-      <c r="L995" s="5" t="s">
-        <v>1892</v>
       </c>
       <c r="M995" s="5" t="s">
         <v>27</v>
@@ -65343,7 +65340,7 @@
         <v>22</v>
       </c>
       <c r="O995" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="P995" s="5" t="s">
         <v>406</v>
@@ -65360,7 +65357,7 @@
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B996" s="2" t="n">
         <v>0</v>
@@ -65419,7 +65416,7 @@
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B997" s="2" t="n">
         <v>0</v>
@@ -65478,7 +65475,7 @@
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B998" s="2" t="n">
         <v>0</v>
@@ -65537,7 +65534,7 @@
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B999" s="2" t="n">
         <v>0</v>
@@ -65596,7 +65593,7 @@
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B1000" s="2" t="n">
         <v>0</v>
@@ -65655,7 +65652,7 @@
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1001" s="2" t="n">
         <v>0</v>
@@ -65714,7 +65711,7 @@
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1002" s="2" t="n">
         <v>0</v>
@@ -65723,7 +65720,7 @@
         <v>30</v>
       </c>
       <c r="D1002" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E1002" s="3" t="s">
         <v>22</v>
@@ -65741,13 +65738,13 @@
         <v>2013</v>
       </c>
       <c r="J1002" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="K1002" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="K1002" s="5" t="s">
+      <c r="L1002" s="5" t="s">
         <v>1900</v>
-      </c>
-      <c r="L1002" s="5" t="s">
-        <v>1901</v>
       </c>
       <c r="M1002" s="5" t="s">
         <v>27</v>
@@ -65773,7 +65770,7 @@
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1003" s="2" t="n">
         <v>0</v>
@@ -65832,7 +65829,7 @@
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="4" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B1004" s="2" t="n">
         <v>0</v>
@@ -65841,7 +65838,7 @@
         <v>113</v>
       </c>
       <c r="D1004" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E1004" s="3" t="s">
         <v>22</v>
@@ -65859,10 +65856,10 @@
         <v>2016</v>
       </c>
       <c r="J1004" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="K1004" s="5" t="s">
         <v>1904</v>
-      </c>
-      <c r="K1004" s="5" t="s">
-        <v>1905</v>
       </c>
       <c r="L1004" s="5" t="s">
         <v>23</v>
@@ -65891,7 +65888,7 @@
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="4" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B1005" s="2" t="n">
         <v>0</v>
@@ -65900,7 +65897,7 @@
         <v>332</v>
       </c>
       <c r="D1005" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E1005" s="3" t="s">
         <v>22</v>
@@ -65918,10 +65915,10 @@
         <v>2016</v>
       </c>
       <c r="J1005" s="5" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="K1005" s="5" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="L1005" s="5" t="s">
         <v>23</v>
@@ -65950,7 +65947,7 @@
     </row>
     <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B1006" s="2" t="n">
         <v>0</v>
@@ -65959,10 +65956,10 @@
         <v>30</v>
       </c>
       <c r="D1006" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E1006" s="3" t="s">
         <v>1581</v>
-      </c>
-      <c r="E1006" s="3" t="s">
-        <v>1582</v>
       </c>
       <c r="F1006" s="3" t="s">
         <v>22</v>
@@ -65980,7 +65977,7 @@
         <v>1496</v>
       </c>
       <c r="K1006" s="5" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="L1006" s="5" t="s">
         <v>314</v>
@@ -66009,7 +66006,7 @@
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="4" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B1007" s="2" t="n">
         <v>0</v>
@@ -66018,19 +66015,19 @@
         <v>658</v>
       </c>
       <c r="D1007" s="4" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1007" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F1007" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1007" s="3" t="s">
         <v>1909</v>
       </c>
-      <c r="E1007" s="3" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F1007" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1007" s="3" t="s">
+      <c r="H1007" s="3" t="s">
         <v>1910</v>
-      </c>
-      <c r="H1007" s="3" t="s">
-        <v>1911</v>
       </c>
       <c r="I1007" s="3" t="n">
         <v>2018</v>
@@ -66039,7 +66036,7 @@
         <v>723</v>
       </c>
       <c r="K1007" s="3" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="L1007" s="5" t="s">
         <v>1005</v>
@@ -66068,7 +66065,7 @@
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1008" s="2" t="n">
         <v>0</v>
@@ -66127,7 +66124,7 @@
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1009" s="2" t="n">
         <v>0</v>
@@ -66186,7 +66183,7 @@
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1010" s="2" t="n">
         <v>0</v>
@@ -66245,7 +66242,7 @@
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1011" s="2" t="n">
         <v>0</v>
@@ -66304,7 +66301,7 @@
     </row>
     <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1012" s="2" t="n">
         <v>0</v>
@@ -66363,7 +66360,7 @@
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1013" s="2" t="n">
         <v>0</v>
@@ -66372,7 +66369,7 @@
         <v>658</v>
       </c>
       <c r="D1013" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E1013" s="3" t="s">
         <v>22</v>
@@ -66390,10 +66387,10 @@
         <v>2018</v>
       </c>
       <c r="J1013" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="K1013" s="3" t="s">
         <v>1915</v>
-      </c>
-      <c r="K1013" s="3" t="s">
-        <v>1916</v>
       </c>
       <c r="L1013" s="3" t="s">
         <v>23</v>
@@ -66422,7 +66419,7 @@
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1014" s="2" t="n">
         <v>0</v>
@@ -66431,7 +66428,7 @@
         <v>20</v>
       </c>
       <c r="D1014" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E1014" s="3" t="s">
         <v>22</v>
@@ -66449,7 +66446,7 @@
         <v>2016</v>
       </c>
       <c r="J1014" s="5" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="K1014" s="5" t="s">
         <v>23</v>
@@ -66481,7 +66478,7 @@
     </row>
     <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B1015" s="2" t="n">
         <v>175245</v>
@@ -66490,7 +66487,7 @@
         <v>203</v>
       </c>
       <c r="D1015" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E1015" s="3" t="s">
         <v>22</v>
@@ -66508,13 +66505,13 @@
         <v>1997</v>
       </c>
       <c r="J1015" s="5" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="K1015" s="6" t="s">
         <v>1440</v>
       </c>
       <c r="L1015" s="5" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="M1015" s="5" t="s">
         <v>27</v>
@@ -66540,7 +66537,7 @@
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B1016" s="2" t="n">
         <v>0</v>
@@ -66599,7 +66596,7 @@
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B1017" s="2" t="n">
         <v>0</v>
@@ -66658,7 +66655,7 @@
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B1018" s="2" t="n">
         <v>0</v>
@@ -66667,7 +66664,7 @@
         <v>113</v>
       </c>
       <c r="D1018" s="4" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E1018" s="3" t="s">
         <v>22</v>
@@ -66685,13 +66682,13 @@
         <v>2019</v>
       </c>
       <c r="J1018" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="K1018" s="10" t="s">
         <v>1927</v>
       </c>
-      <c r="K1018" s="10" t="s">
+      <c r="L1018" s="3" t="s">
         <v>1928</v>
-      </c>
-      <c r="L1018" s="3" t="s">
-        <v>1929</v>
       </c>
       <c r="M1018" s="3" t="s">
         <v>27</v>
@@ -66717,7 +66714,7 @@
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B1019" s="2" t="n">
         <v>0</v>
@@ -66776,7 +66773,7 @@
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B1020" s="2" t="n">
         <v>0</v>
@@ -66835,7 +66832,7 @@
     </row>
     <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B1021" s="2" t="n">
         <v>0</v>
@@ -66868,7 +66865,7 @@
         <v>924</v>
       </c>
       <c r="L1021" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="M1021" s="5" t="s">
         <v>23</v>
@@ -66894,7 +66891,7 @@
     </row>
     <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B1022" s="2" t="n">
         <v>0</v>
@@ -66953,7 +66950,7 @@
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B1023" s="2" t="n">
         <v>0</v>
@@ -67012,7 +67009,7 @@
     </row>
     <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B1024" s="2" t="n">
         <v>0</v>
@@ -67071,7 +67068,7 @@
     </row>
     <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="4" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B1025" s="2" t="n">
         <v>0</v>
@@ -67080,7 +67077,7 @@
         <v>20</v>
       </c>
       <c r="D1025" s="4" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E1025" s="3" t="s">
         <v>1277</v>
@@ -67092,7 +67089,7 @@
         <v>23</v>
       </c>
       <c r="H1025" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="I1025" s="3" t="n">
         <v>2013</v>
@@ -67101,7 +67098,7 @@
         <v>216</v>
       </c>
       <c r="K1025" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="L1025" s="5" t="s">
         <v>185</v>
@@ -67130,7 +67127,7 @@
     </row>
     <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B1026" s="2" t="n">
         <v>0</v>
@@ -67189,7 +67186,7 @@
     </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B1027" s="2" t="n">
         <v>0</v>
@@ -67222,7 +67219,7 @@
         <v>924</v>
       </c>
       <c r="L1027" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="M1027" s="5" t="s">
         <v>23</v>
@@ -67248,7 +67245,7 @@
     </row>
     <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B1028" s="2" t="n">
         <v>0</v>
@@ -67307,7 +67304,7 @@
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B1029" s="2" t="n">
         <v>0</v>
@@ -67366,7 +67363,7 @@
     </row>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B1030" s="2" t="n">
         <v>0</v>
@@ -67425,7 +67422,7 @@
     </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B1031" s="2" t="n">
         <v>0</v>
@@ -67434,7 +67431,7 @@
         <v>113</v>
       </c>
       <c r="D1031" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E1031" s="3" t="s">
         <v>22</v>
@@ -67452,10 +67449,10 @@
         <v>1992</v>
       </c>
       <c r="J1031" s="5" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K1031" s="5" t="s">
         <v>1940</v>
-      </c>
-      <c r="K1031" s="5" t="s">
-        <v>1941</v>
       </c>
       <c r="L1031" s="5" t="s">
         <v>1452</v>
@@ -67484,7 +67481,7 @@
     </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B1032" s="2" t="n">
         <v>0</v>
@@ -67493,7 +67490,7 @@
         <v>20</v>
       </c>
       <c r="D1032" s="4" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E1032" s="3" t="s">
         <v>1277</v>
@@ -67514,7 +67511,7 @@
         <v>1400</v>
       </c>
       <c r="K1032" s="5" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="L1032" s="5" t="s">
         <v>23</v>
@@ -67543,7 +67540,7 @@
     </row>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1033" s="2" t="n">
         <v>0</v>
@@ -67602,7 +67599,7 @@
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1034" s="2" t="n">
         <v>0</v>
@@ -67661,7 +67658,7 @@
     </row>
     <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1035" s="2" t="n">
         <v>0</v>
@@ -67720,7 +67717,7 @@
     </row>
     <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1036" s="2" t="n">
         <v>0</v>
@@ -67779,7 +67776,7 @@
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B1037" s="2" t="n">
         <v>0</v>
@@ -67838,7 +67835,7 @@
     </row>
     <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B1038" s="2" t="n">
         <v>0</v>
@@ -67897,7 +67894,7 @@
     </row>
     <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B1039" s="2" t="n">
         <v>0</v>
@@ -67956,7 +67953,7 @@
     </row>
     <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B1040" s="2" t="n">
         <v>0</v>
@@ -68015,7 +68012,7 @@
     </row>
     <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B1041" s="2" t="n">
         <v>0</v>
@@ -68074,7 +68071,7 @@
     </row>
     <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B1042" s="2" t="n">
         <v>0</v>
@@ -68083,7 +68080,7 @@
         <v>113</v>
       </c>
       <c r="D1042" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E1042" s="3" t="s">
         <v>22</v>
@@ -68101,10 +68098,10 @@
         <v>1992</v>
       </c>
       <c r="J1042" s="5" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K1042" s="5" t="s">
         <v>1940</v>
-      </c>
-      <c r="K1042" s="5" t="s">
-        <v>1941</v>
       </c>
       <c r="L1042" s="5" t="s">
         <v>1452</v>
@@ -68133,7 +68130,7 @@
     </row>
     <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B1043" s="2" t="n">
         <v>0</v>
@@ -68192,7 +68189,7 @@
     </row>
     <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B1044" s="2" t="n">
         <v>0</v>
@@ -68251,7 +68248,7 @@
     </row>
     <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B1045" s="2" t="n">
         <v>0</v>
@@ -68260,7 +68257,7 @@
         <v>20</v>
       </c>
       <c r="D1045" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E1045" s="3" t="s">
         <v>1277</v>
@@ -68278,7 +68275,7 @@
         <v>2015</v>
       </c>
       <c r="J1045" s="5" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="K1045" s="5" t="s">
         <v>23</v>
@@ -68293,13 +68290,13 @@
         <v>22</v>
       </c>
       <c r="O1045" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="P1045" s="5" t="s">
         <v>41</v>
       </c>
       <c r="Q1045" s="5" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="R1045" s="5" t="s">
         <v>22</v>
@@ -68310,7 +68307,7 @@
     </row>
     <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B1046" s="2" t="n">
         <v>0</v>
@@ -68369,7 +68366,7 @@
     </row>
     <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B1047" s="2" t="n">
         <v>0</v>
@@ -68402,7 +68399,7 @@
         <v>924</v>
       </c>
       <c r="L1047" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="M1047" s="5" t="s">
         <v>23</v>
@@ -68428,7 +68425,7 @@
     </row>
     <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B1048" s="2" t="n">
         <v>0</v>
@@ -68487,7 +68484,7 @@
     </row>
     <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B1049" s="2" t="n">
         <v>0</v>
@@ -68546,7 +68543,7 @@
     </row>
     <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B1050" s="2" t="n">
         <v>0</v>
@@ -68605,7 +68602,7 @@
     </row>
     <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B1051" s="2" t="n">
         <v>0</v>
@@ -68664,7 +68661,7 @@
     </row>
     <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B1052" s="2" t="n">
         <v>0</v>
@@ -68723,7 +68720,7 @@
     </row>
     <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B1053" s="2" t="n">
         <v>0</v>
@@ -68782,7 +68779,7 @@
     </row>
     <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B1054" s="2" t="n">
         <v>0</v>
@@ -68841,7 +68838,7 @@
     </row>
     <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B1055" s="2" t="n">
         <v>0</v>
@@ -68900,7 +68897,7 @@
     </row>
     <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1056" s="2" t="n">
         <v>0</v>
@@ -68912,7 +68909,7 @@
         <v>1528</v>
       </c>
       <c r="E1056" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F1056" s="3" t="s">
         <v>22</v>
@@ -68959,7 +68956,7 @@
     </row>
     <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1057" s="2" t="n">
         <v>0</v>
@@ -68992,7 +68989,7 @@
         <v>924</v>
       </c>
       <c r="L1057" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="M1057" s="5" t="s">
         <v>23</v>
@@ -69018,7 +69015,7 @@
     </row>
     <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1058" s="2" t="n">
         <v>0</v>
@@ -69077,7 +69074,7 @@
     </row>
     <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1059" s="2" t="n">
         <v>0</v>
@@ -69136,7 +69133,7 @@
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1060" s="2" t="n">
         <v>0</v>
@@ -69148,7 +69145,7 @@
         <v>1528</v>
       </c>
       <c r="E1060" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F1060" s="3" t="s">
         <v>22</v>
@@ -69195,7 +69192,7 @@
     </row>
     <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1061" s="2" t="n">
         <v>0</v>
@@ -69254,7 +69251,7 @@
     </row>
     <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1062" s="2" t="n">
         <v>0</v>
@@ -69263,7 +69260,7 @@
         <v>64</v>
       </c>
       <c r="D1062" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E1062" s="3" t="s">
         <v>1069</v>
@@ -69272,10 +69269,10 @@
         <v>39</v>
       </c>
       <c r="G1062" s="3" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H1062" s="3" t="s">
         <v>1961</v>
-      </c>
-      <c r="H1062" s="3" t="s">
-        <v>1962</v>
       </c>
       <c r="I1062" s="3" t="n">
         <v>2019</v>
@@ -69284,7 +69281,7 @@
         <v>83</v>
       </c>
       <c r="K1062" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="L1062" s="5" t="s">
         <v>185</v>
@@ -69296,13 +69293,13 @@
         <v>22</v>
       </c>
       <c r="O1062" s="3" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="P1062" s="3" t="s">
         <v>406</v>
       </c>
       <c r="Q1062" s="3" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="R1062" s="3" t="s">
         <v>22</v>
@@ -69313,16 +69310,16 @@
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1063" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1063" s="8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D1063" s="4" t="s">
         <v>1966</v>
-      </c>
-      <c r="D1063" s="4" t="s">
-        <v>1967</v>
       </c>
       <c r="E1063" s="3" t="s">
         <v>22</v>
@@ -69343,7 +69340,7 @@
         <v>83</v>
       </c>
       <c r="K1063" s="6" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="L1063" s="5" t="s">
         <v>255</v>
@@ -69372,7 +69369,7 @@
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1064" s="2" t="n">
         <v>0</v>
@@ -69381,7 +69378,7 @@
         <v>374</v>
       </c>
       <c r="D1064" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E1064" s="3" t="s">
         <v>22</v>
@@ -69402,7 +69399,7 @@
         <v>83</v>
       </c>
       <c r="K1064" s="6" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="L1064" s="5" t="s">
         <v>100</v>
@@ -69431,7 +69428,7 @@
     </row>
     <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1065" s="2" t="n">
         <v>0</v>
@@ -69440,7 +69437,7 @@
         <v>78</v>
       </c>
       <c r="D1065" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E1065" s="3" t="s">
         <v>22</v>
@@ -69461,7 +69458,7 @@
         <v>83</v>
       </c>
       <c r="K1065" s="6" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="L1065" s="5" t="s">
         <v>62</v>
@@ -69490,7 +69487,7 @@
     </row>
     <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1066" s="2" t="n">
         <v>0</v>
@@ -69499,7 +69496,7 @@
         <v>64</v>
       </c>
       <c r="D1066" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E1066" s="3" t="s">
         <v>22</v>
@@ -69520,7 +69517,7 @@
         <v>83</v>
       </c>
       <c r="K1066" s="6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="L1066" s="5" t="s">
         <v>66</v>
@@ -69549,7 +69546,7 @@
     </row>
     <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1067" s="8" t="n">
         <v>0</v>
@@ -69558,7 +69555,7 @@
         <v>20</v>
       </c>
       <c r="D1067" s="7" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E1067" s="5" t="s">
         <v>22</v>
@@ -69576,10 +69573,10 @@
         <v>2004</v>
       </c>
       <c r="J1067" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K1067" s="6" t="s">
         <v>1972</v>
-      </c>
-      <c r="K1067" s="6" t="s">
-        <v>1973</v>
       </c>
       <c r="L1067" s="5" t="s">
         <v>255</v>
@@ -69608,7 +69605,7 @@
     </row>
     <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1068" s="2" t="n">
         <v>0</v>
@@ -69617,7 +69614,7 @@
         <v>20</v>
       </c>
       <c r="D1068" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E1068" s="3" t="s">
         <v>22</v>
@@ -69638,7 +69635,7 @@
         <v>282</v>
       </c>
       <c r="K1068" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="L1068" s="5" t="s">
         <v>255</v>
@@ -69667,7 +69664,7 @@
     </row>
     <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="7" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1069" s="8" t="n">
         <v>0</v>
@@ -69676,7 +69673,7 @@
         <v>931</v>
       </c>
       <c r="D1069" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1069" s="5" t="s">
         <v>22</v>
@@ -69697,10 +69694,10 @@
         <v>299</v>
       </c>
       <c r="K1069" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="L1069" s="5" t="s">
         <v>1975</v>
-      </c>
-      <c r="L1069" s="5" t="s">
-        <v>1976</v>
       </c>
       <c r="M1069" s="5" t="s">
         <v>27</v>
@@ -69726,7 +69723,7 @@
     </row>
     <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1070" s="2" t="n">
         <v>0</v>
@@ -69735,7 +69732,7 @@
         <v>931</v>
       </c>
       <c r="D1070" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1070" s="3" t="s">
         <v>22</v>
@@ -69756,10 +69753,10 @@
         <v>299</v>
       </c>
       <c r="K1070" s="5" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="L1070" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="M1070" s="5" t="s">
         <v>23</v>
@@ -69785,7 +69782,7 @@
     </row>
     <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="7" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1071" s="8" t="n">
         <v>0</v>
@@ -69794,7 +69791,7 @@
         <v>166</v>
       </c>
       <c r="D1071" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1071" s="5" t="s">
         <v>22</v>
@@ -69815,7 +69812,7 @@
         <v>299</v>
       </c>
       <c r="K1071" s="5" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="L1071" s="5" t="s">
         <v>170</v>
@@ -69844,7 +69841,7 @@
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1072" s="2" t="n">
         <v>0</v>
@@ -69853,7 +69850,7 @@
         <v>166</v>
       </c>
       <c r="D1072" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1072" s="3" t="s">
         <v>22</v>
@@ -69874,7 +69871,7 @@
         <v>299</v>
       </c>
       <c r="K1072" s="5" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="L1072" s="5" t="s">
         <v>170</v>
@@ -69903,7 +69900,7 @@
     </row>
     <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="7" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1073" s="8" t="n">
         <v>0</v>
@@ -69912,7 +69909,7 @@
         <v>20</v>
       </c>
       <c r="D1073" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1073" s="5" t="s">
         <v>22</v>
@@ -69933,7 +69930,7 @@
         <v>299</v>
       </c>
       <c r="K1073" s="5" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="L1073" s="5" t="s">
         <v>255</v>
@@ -69962,7 +69959,7 @@
     </row>
     <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1074" s="2" t="n">
         <v>0</v>
@@ -69971,7 +69968,7 @@
         <v>20</v>
       </c>
       <c r="D1074" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1074" s="3" t="s">
         <v>22</v>
@@ -69992,7 +69989,7 @@
         <v>299</v>
       </c>
       <c r="K1074" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="L1074" s="5" t="s">
         <v>255</v>
@@ -70021,7 +70018,7 @@
     </row>
     <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="7" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1075" s="8" t="n">
         <v>0</v>
@@ -70030,7 +70027,7 @@
         <v>94</v>
       </c>
       <c r="D1075" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1075" s="5" t="s">
         <v>22</v>
@@ -70051,7 +70048,7 @@
         <v>299</v>
       </c>
       <c r="K1075" s="5" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="L1075" s="5" t="s">
         <v>23</v>
@@ -70080,7 +70077,7 @@
     </row>
     <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1076" s="2" t="n">
         <v>0</v>
@@ -70089,7 +70086,7 @@
         <v>94</v>
       </c>
       <c r="D1076" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1076" s="3" t="s">
         <v>22</v>
@@ -70110,7 +70107,7 @@
         <v>299</v>
       </c>
       <c r="K1076" s="5" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="L1076" s="5" t="s">
         <v>23</v>
@@ -70139,7 +70136,7 @@
     </row>
     <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="7" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1077" s="8" t="n">
         <v>0</v>
@@ -70148,7 +70145,7 @@
         <v>374</v>
       </c>
       <c r="D1077" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1077" s="5" t="s">
         <v>22</v>
@@ -70169,7 +70166,7 @@
         <v>299</v>
       </c>
       <c r="K1077" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="L1077" s="5" t="s">
         <v>100</v>
@@ -70198,7 +70195,7 @@
     </row>
     <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1078" s="2" t="n">
         <v>0</v>
@@ -70207,7 +70204,7 @@
         <v>374</v>
       </c>
       <c r="D1078" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1078" s="3" t="s">
         <v>22</v>
@@ -70228,7 +70225,7 @@
         <v>299</v>
       </c>
       <c r="K1078" s="5" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="L1078" s="5" t="s">
         <v>100</v>
@@ -70257,7 +70254,7 @@
     </row>
     <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1079" s="2" t="n">
         <v>0</v>
@@ -70316,7 +70313,7 @@
     </row>
     <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1080" s="2" t="n">
         <v>0</v>
@@ -70375,7 +70372,7 @@
     </row>
     <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1081" s="2" t="n">
         <v>0</v>
@@ -70384,7 +70381,7 @@
         <v>374</v>
       </c>
       <c r="D1081" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E1081" s="3" t="s">
         <v>22</v>
@@ -70402,10 +70399,10 @@
         <v>2008</v>
       </c>
       <c r="J1081" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="K1081" s="5" t="s">
         <v>1985</v>
-      </c>
-      <c r="K1081" s="5" t="s">
-        <v>1986</v>
       </c>
       <c r="L1081" s="5" t="s">
         <v>185</v>
@@ -70434,7 +70431,7 @@
     </row>
     <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1082" s="2" t="n">
         <v>0</v>
@@ -70443,7 +70440,7 @@
         <v>20</v>
       </c>
       <c r="D1082" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E1082" s="3" t="s">
         <v>22</v>
@@ -70461,10 +70458,10 @@
         <v>2008</v>
       </c>
       <c r="J1082" s="5" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K1082" s="5" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="L1082" s="5" t="s">
         <v>185</v>
@@ -70493,7 +70490,7 @@
     </row>
     <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1083" s="2" t="n">
         <v>0</v>
@@ -70502,7 +70499,7 @@
         <v>64</v>
       </c>
       <c r="D1083" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E1083" s="3" t="s">
         <v>22</v>
@@ -70523,7 +70520,7 @@
         <v>83</v>
       </c>
       <c r="K1083" s="5" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="L1083" s="5" t="s">
         <v>185</v>
@@ -70552,7 +70549,7 @@
     </row>
     <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1084" s="2" t="n">
         <v>0</v>
@@ -70561,7 +70558,7 @@
         <v>374</v>
       </c>
       <c r="D1084" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E1084" s="3" t="s">
         <v>22</v>
@@ -70582,7 +70579,7 @@
         <v>83</v>
       </c>
       <c r="K1084" s="5" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="L1084" s="5" t="s">
         <v>185</v>
@@ -70611,7 +70608,7 @@
     </row>
     <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1085" s="2" t="n">
         <v>0</v>
@@ -70620,7 +70617,7 @@
         <v>20</v>
       </c>
       <c r="D1085" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E1085" s="3" t="s">
         <v>22</v>
@@ -70641,7 +70638,7 @@
         <v>83</v>
       </c>
       <c r="K1085" s="5" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="L1085" s="5" t="s">
         <v>185</v>
@@ -70670,7 +70667,7 @@
     </row>
     <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1086" s="2" t="n">
         <v>0</v>
@@ -70679,7 +70676,7 @@
         <v>20</v>
       </c>
       <c r="D1086" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E1086" s="3" t="s">
         <v>89</v>
@@ -70700,7 +70697,7 @@
         <v>516</v>
       </c>
       <c r="K1086" s="5" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="L1086" s="5" t="s">
         <v>23</v>
@@ -70729,7 +70726,7 @@
     </row>
     <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1087" s="2" t="n">
         <v>0</v>
@@ -70788,7 +70785,7 @@
     </row>
     <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1088" s="2" t="n">
         <v>0</v>
@@ -70797,7 +70794,7 @@
         <v>20</v>
       </c>
       <c r="D1088" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E1088" s="3" t="s">
         <v>22</v>
@@ -70818,7 +70815,7 @@
         <v>179</v>
       </c>
       <c r="K1088" s="5" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="L1088" s="5" t="s">
         <v>185</v>
@@ -70847,7 +70844,7 @@
     </row>
     <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="7" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1089" s="8" t="n">
         <v>0</v>
@@ -70856,7 +70853,7 @@
         <v>166</v>
       </c>
       <c r="D1089" s="7" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E1089" s="5" t="s">
         <v>22</v>
@@ -70877,7 +70874,7 @@
         <v>179</v>
       </c>
       <c r="K1089" s="5" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="L1089" s="5" t="s">
         <v>185</v>
@@ -70906,7 +70903,7 @@
     </row>
     <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="7" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1090" s="8" t="n">
         <v>0</v>
@@ -70915,19 +70912,19 @@
         <v>34</v>
       </c>
       <c r="D1090" s="5" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E1090" s="5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F1090" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1090" s="5" t="s">
         <v>1996</v>
       </c>
-      <c r="F1090" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1090" s="5" t="s">
+      <c r="H1090" s="5" t="s">
         <v>1997</v>
-      </c>
-      <c r="H1090" s="5" t="s">
-        <v>1998</v>
       </c>
       <c r="I1090" s="5" t="n">
         <v>2005</v>
@@ -70936,7 +70933,7 @@
         <v>216</v>
       </c>
       <c r="K1090" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L1090" s="5" t="s">
         <v>23</v>
@@ -70965,7 +70962,7 @@
     </row>
     <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1091" s="2" t="n">
         <v>0</v>
@@ -70974,19 +70971,19 @@
         <v>34</v>
       </c>
       <c r="D1091" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E1091" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F1091" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1091" s="3" t="s">
         <v>1996</v>
       </c>
-      <c r="F1091" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1091" s="3" t="s">
+      <c r="H1091" s="3" t="s">
         <v>1997</v>
-      </c>
-      <c r="H1091" s="3" t="s">
-        <v>1998</v>
       </c>
       <c r="I1091" s="3" t="n">
         <v>2005</v>
@@ -70995,7 +70992,7 @@
         <v>216</v>
       </c>
       <c r="K1091" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L1091" s="5" t="s">
         <v>23</v>
@@ -71024,7 +71021,7 @@
     </row>
     <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1092" s="2" t="n">
         <v>0</v>
@@ -71033,7 +71030,7 @@
         <v>68</v>
       </c>
       <c r="D1092" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E1092" s="3" t="s">
         <v>22</v>
@@ -71051,13 +71048,13 @@
         <v>2009</v>
       </c>
       <c r="J1092" s="5" t="s">
+        <v>1999</v>
+      </c>
+      <c r="K1092" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="K1092" s="5" t="s">
+      <c r="L1092" s="5" t="s">
         <v>2001</v>
-      </c>
-      <c r="L1092" s="5" t="s">
-        <v>2002</v>
       </c>
       <c r="M1092" s="5" t="s">
         <v>27</v>
@@ -71083,7 +71080,7 @@
     </row>
     <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1093" s="2" t="n">
         <v>0</v>
@@ -71092,7 +71089,7 @@
         <v>78</v>
       </c>
       <c r="D1093" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E1093" s="3" t="s">
         <v>22</v>
@@ -71110,10 +71107,10 @@
         <v>2009</v>
       </c>
       <c r="J1093" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K1093" s="5" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="L1093" s="5" t="s">
         <v>185</v>
@@ -71142,7 +71139,7 @@
     </row>
     <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1094" s="2" t="n">
         <v>0</v>
@@ -71151,7 +71148,7 @@
         <v>64</v>
       </c>
       <c r="D1094" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E1094" s="3" t="s">
         <v>22</v>
@@ -71169,7 +71166,7 @@
         <v>2009</v>
       </c>
       <c r="J1094" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K1094" s="5" t="s">
         <v>1299</v>
@@ -71201,7 +71198,7 @@
     </row>
     <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1095" s="2" t="n">
         <v>0</v>
@@ -71210,7 +71207,7 @@
         <v>20</v>
       </c>
       <c r="D1095" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E1095" s="3" t="s">
         <v>22</v>
@@ -71228,10 +71225,10 @@
         <v>2009</v>
       </c>
       <c r="J1095" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K1095" s="5" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="L1095" s="5" t="s">
         <v>185</v>
@@ -71260,7 +71257,7 @@
     </row>
     <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1096" s="2" t="n">
         <v>0</v>
@@ -71269,7 +71266,7 @@
         <v>166</v>
       </c>
       <c r="D1096" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E1096" s="3" t="s">
         <v>22</v>
@@ -71287,10 +71284,10 @@
         <v>2009</v>
       </c>
       <c r="J1096" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K1096" s="5" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L1096" s="5" t="s">
         <v>185</v>
@@ -71319,7 +71316,7 @@
     </row>
     <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1097" s="2" t="n">
         <v>0</v>
@@ -71378,7 +71375,7 @@
     </row>
     <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1098" s="2" t="n">
         <v>0</v>
@@ -71437,7 +71434,7 @@
     </row>
     <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1099" s="2" t="n">
         <v>0</v>
@@ -71496,7 +71493,7 @@
     </row>
     <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1100" s="2" t="n">
         <v>0</v>
@@ -71555,7 +71552,7 @@
     </row>
     <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B1101" s="2" t="n">
         <v>1931</v>
@@ -71614,7 +71611,7 @@
     </row>
     <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1102" s="2" t="n">
         <v>0</v>
@@ -71673,7 +71670,7 @@
     </row>
     <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="9" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1103" s="2" t="n">
         <v>59298</v>
@@ -71682,7 +71679,7 @@
         <v>20</v>
       </c>
       <c r="D1103" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E1103" s="3" t="s">
         <v>22</v>
@@ -71703,7 +71700,7 @@
         <v>282</v>
       </c>
       <c r="K1103" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="L1103" s="5" t="s">
         <v>255</v>
@@ -71732,7 +71729,7 @@
     </row>
     <row r="1104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1104" s="2" t="n">
         <v>0</v>
@@ -71791,7 +71788,7 @@
     </row>
     <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B1105" s="2" t="n">
         <v>0</v>
@@ -71800,7 +71797,7 @@
         <v>64</v>
       </c>
       <c r="D1105" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1105" s="3" t="s">
         <v>22</v>
@@ -71818,10 +71815,10 @@
         <v>2006</v>
       </c>
       <c r="J1105" s="5" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K1105" s="5" t="s">
         <v>2011</v>
-      </c>
-      <c r="K1105" s="5" t="s">
-        <v>2012</v>
       </c>
       <c r="L1105" s="5" t="s">
         <v>126</v>
@@ -71850,7 +71847,7 @@
     </row>
     <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1106" s="2" t="n">
         <v>0</v>
@@ -71859,7 +71856,7 @@
         <v>20</v>
       </c>
       <c r="D1106" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E1106" s="3" t="s">
         <v>22</v>
@@ -71880,7 +71877,7 @@
         <v>282</v>
       </c>
       <c r="K1106" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="L1106" s="5" t="s">
         <v>255</v>
@@ -71909,7 +71906,7 @@
     </row>
     <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B1107" s="2" t="n">
         <v>0</v>
@@ -71918,19 +71915,19 @@
         <v>64</v>
       </c>
       <c r="D1107" s="4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1107" s="3" t="s">
         <v>2014</v>
       </c>
-      <c r="E1107" s="3" t="s">
+      <c r="F1107" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1107" s="3" t="s">
         <v>2015</v>
-      </c>
-      <c r="F1107" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1107" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1107" s="3" t="s">
-        <v>2016</v>
       </c>
       <c r="I1107" s="3" t="n">
         <v>2013</v>
@@ -71939,7 +71936,7 @@
         <v>83</v>
       </c>
       <c r="K1107" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="L1107" s="5" t="s">
         <v>23</v>
@@ -71968,7 +71965,7 @@
     </row>
     <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="9" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B1108" s="2" t="n">
         <v>0</v>
@@ -71977,7 +71974,7 @@
         <v>20</v>
       </c>
       <c r="D1108" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E1108" s="3" t="s">
         <v>22</v>
@@ -71998,7 +71995,7 @@
         <v>282</v>
       </c>
       <c r="K1108" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="L1108" s="5" t="s">
         <v>255</v>
@@ -72027,7 +72024,7 @@
     </row>
     <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="4" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B1109" s="2" t="n">
         <v>67581</v>
@@ -72086,7 +72083,7 @@
     </row>
     <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="7" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B1110" s="2" t="n">
         <v>67581</v>
@@ -72095,7 +72092,7 @@
         <v>113</v>
       </c>
       <c r="D1110" s="7" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E1110" s="5" t="s">
         <v>22</v>
@@ -72113,10 +72110,10 @@
         <v>1992</v>
       </c>
       <c r="J1110" s="5" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K1110" s="5" t="s">
         <v>1940</v>
-      </c>
-      <c r="K1110" s="5" t="s">
-        <v>1941</v>
       </c>
       <c r="L1110" s="5" t="s">
         <v>1452</v>
@@ -72145,7 +72142,7 @@
     </row>
     <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1111" s="2" t="n">
         <v>28572</v>
@@ -72204,7 +72201,7 @@
     </row>
     <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1112" s="2" t="n">
         <v>28572</v>
@@ -72213,7 +72210,7 @@
         <v>20</v>
       </c>
       <c r="D1112" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E1112" s="3" t="s">
         <v>1277</v>
@@ -72263,7 +72260,7 @@
     </row>
     <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1113" s="2" t="n">
         <v>28572</v>
@@ -72272,7 +72269,7 @@
         <v>20</v>
       </c>
       <c r="D1113" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E1113" s="3" t="s">
         <v>1277</v>
@@ -72322,7 +72319,7 @@
     </row>
     <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1114" s="2" t="n">
         <v>28572</v>
@@ -72331,10 +72328,10 @@
         <v>64</v>
       </c>
       <c r="D1114" s="4" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E1114" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F1114" s="3" t="s">
         <v>22</v>
@@ -72352,7 +72349,7 @@
         <v>581</v>
       </c>
       <c r="K1114" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L1114" s="5" t="s">
         <v>126</v>
@@ -72381,7 +72378,7 @@
     </row>
     <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1115" s="2" t="n">
         <v>28572</v>
@@ -72390,10 +72387,10 @@
         <v>20</v>
       </c>
       <c r="D1115" s="4" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E1115" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F1115" s="3" t="s">
         <v>22</v>
@@ -72411,7 +72408,7 @@
         <v>581</v>
       </c>
       <c r="K1115" s="5" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L1115" s="5" t="s">
         <v>185</v>
@@ -72440,7 +72437,7 @@
     </row>
     <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B1116" s="2" t="n">
         <v>28574</v>
@@ -72499,7 +72496,7 @@
     </row>
     <row r="1117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B1117" s="2" t="n">
         <v>0</v>
@@ -72558,7 +72555,7 @@
     </row>
     <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B1118" s="2" t="n">
         <v>0</v>
@@ -72567,7 +72564,7 @@
         <v>237</v>
       </c>
       <c r="D1118" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E1118" s="3" t="s">
         <v>22</v>
@@ -72585,10 +72582,10 @@
         <v>2017</v>
       </c>
       <c r="J1118" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K1118" s="5" t="s">
         <v>2030</v>
-      </c>
-      <c r="K1118" s="5" t="s">
-        <v>2031</v>
       </c>
       <c r="L1118" s="5" t="s">
         <v>185</v>
@@ -72617,7 +72614,7 @@
     </row>
     <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B1119" s="2" t="n">
         <v>0</v>
@@ -72676,7 +72673,7 @@
     </row>
     <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="4" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B1120" s="2" t="n">
         <v>0</v>
@@ -72735,7 +72732,7 @@
     </row>
     <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="4" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B1121" s="2" t="n">
         <v>0</v>
@@ -72794,7 +72791,7 @@
     </row>
     <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="4" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B1122" s="2" t="n">
         <v>0</v>
@@ -72853,7 +72850,7 @@
     </row>
     <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B1123" s="2" t="n">
         <v>0</v>
@@ -72912,7 +72909,7 @@
     </row>
     <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="7" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B1124" s="8" t="n">
         <v>0</v>
@@ -72921,7 +72918,7 @@
         <v>78</v>
       </c>
       <c r="D1124" s="7" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E1124" s="5" t="s">
         <v>22</v>
@@ -72942,7 +72939,7 @@
         <v>441</v>
       </c>
       <c r="K1124" s="5" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="L1124" s="5" t="s">
         <v>62</v>
@@ -72971,7 +72968,7 @@
     </row>
     <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B1125" s="2" t="n">
         <v>0</v>
@@ -72980,7 +72977,7 @@
         <v>64</v>
       </c>
       <c r="D1125" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E1125" s="3" t="s">
         <v>22</v>
@@ -73030,7 +73027,7 @@
     </row>
     <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="9" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B1126" s="2" t="n">
         <v>0</v>
@@ -73048,10 +73045,10 @@
         <v>39</v>
       </c>
       <c r="G1126" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H1126" s="3" t="s">
         <v>2039</v>
-      </c>
-      <c r="H1126" s="3" t="s">
-        <v>2040</v>
       </c>
       <c r="I1126" s="3" t="s">
         <v>23</v>
@@ -73089,7 +73086,7 @@
     </row>
     <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="4" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B1127" s="2" t="n">
         <v>0</v>
@@ -73107,10 +73104,10 @@
         <v>39</v>
       </c>
       <c r="G1127" s="3" t="s">
+        <v>2040</v>
+      </c>
+      <c r="H1127" s="3" t="s">
         <v>2041</v>
-      </c>
-      <c r="H1127" s="3" t="s">
-        <v>2042</v>
       </c>
       <c r="I1127" s="3" t="n">
         <v>2010</v>
@@ -73148,7 +73145,7 @@
     </row>
     <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="4" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1128" s="2" t="n">
         <v>0</v>
@@ -73157,7 +73154,7 @@
         <v>108</v>
       </c>
       <c r="D1128" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="E1128" s="3" t="s">
         <v>492</v>
@@ -73166,19 +73163,19 @@
         <v>39</v>
       </c>
       <c r="G1128" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H1128" s="3" t="s">
         <v>2045</v>
-      </c>
-      <c r="H1128" s="3" t="s">
-        <v>2046</v>
       </c>
       <c r="I1128" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="J1128" s="5" t="s">
+        <v>2046</v>
+      </c>
+      <c r="K1128" s="6" t="s">
         <v>2047</v>
-      </c>
-      <c r="K1128" s="6" t="s">
-        <v>2048</v>
       </c>
       <c r="L1128" s="5" t="s">
         <v>185</v>
@@ -73207,7 +73204,7 @@
     </row>
     <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="4" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1129" s="2" t="n">
         <v>0</v>
@@ -73216,7 +73213,7 @@
         <v>108</v>
       </c>
       <c r="D1129" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="E1129" s="3" t="s">
         <v>492</v>
@@ -73225,19 +73222,19 @@
         <v>39</v>
       </c>
       <c r="G1129" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H1129" s="3" t="s">
         <v>2049</v>
-      </c>
-      <c r="H1129" s="3" t="s">
-        <v>2050</v>
       </c>
       <c r="I1129" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="J1129" s="5" t="s">
+        <v>2046</v>
+      </c>
+      <c r="K1129" s="6" t="s">
         <v>2047</v>
-      </c>
-      <c r="K1129" s="6" t="s">
-        <v>2048</v>
       </c>
       <c r="L1129" s="5" t="s">
         <v>185</v>
@@ -73266,7 +73263,7 @@
     </row>
     <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="4" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1130" s="2" t="n">
         <v>0</v>
@@ -73325,7 +73322,7 @@
     </row>
     <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="4" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1131" s="2" t="n">
         <v>0</v>
@@ -73384,7 +73381,7 @@
     </row>
     <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="9" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B1132" s="2" t="n">
         <v>0</v>
@@ -73402,10 +73399,10 @@
         <v>39</v>
       </c>
       <c r="G1132" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H1132" s="3" t="s">
         <v>2052</v>
-      </c>
-      <c r="H1132" s="3" t="s">
-        <v>2053</v>
       </c>
       <c r="I1132" s="3" t="s">
         <v>23</v>
@@ -73443,7 +73440,7 @@
     </row>
     <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B1133" s="2" t="n">
         <v>0</v>
@@ -73452,7 +73449,7 @@
         <v>108</v>
       </c>
       <c r="D1133" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="E1133" s="3" t="s">
         <v>492</v>
@@ -73461,19 +73458,19 @@
         <v>39</v>
       </c>
       <c r="G1133" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H1133" s="3" t="s">
         <v>2054</v>
-      </c>
-      <c r="H1133" s="3" t="s">
-        <v>2055</v>
       </c>
       <c r="I1133" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="J1133" s="5" t="s">
+        <v>2046</v>
+      </c>
+      <c r="K1133" s="6" t="s">
         <v>2047</v>
-      </c>
-      <c r="K1133" s="6" t="s">
-        <v>2048</v>
       </c>
       <c r="L1133" s="5" t="s">
         <v>185</v>
@@ -73502,7 +73499,7 @@
     </row>
     <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B1134" s="2" t="n">
         <v>0</v>
@@ -73561,16 +73558,16 @@
     </row>
     <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B1135" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1135" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D1135" s="4" t="s">
         <v>2056</v>
-      </c>
-      <c r="D1135" s="4" t="s">
-        <v>2057</v>
       </c>
       <c r="E1135" s="3" t="s">
         <v>22</v>
@@ -73591,7 +73588,7 @@
         <v>75</v>
       </c>
       <c r="K1135" s="5" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="L1135" s="5" t="s">
         <v>23</v>
@@ -73620,7 +73617,7 @@
     </row>
     <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B1136" s="2" t="n">
         <v>0</v>
@@ -73629,7 +73626,7 @@
         <v>108</v>
       </c>
       <c r="D1136" s="4" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E1136" s="3" t="s">
         <v>492</v>
@@ -73679,7 +73676,7 @@
     </row>
     <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="4" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B1137" s="3" t="n">
         <v>0</v>
@@ -73691,16 +73688,16 @@
         <v>1265</v>
       </c>
       <c r="E1137" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F1137" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1137" s="3" t="s">
         <v>2061</v>
       </c>
-      <c r="F1137" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1137" s="3" t="s">
+      <c r="H1137" s="3" t="s">
         <v>2062</v>
-      </c>
-      <c r="H1137" s="3" t="s">
-        <v>2063</v>
       </c>
       <c r="I1137" s="3" t="s">
         <v>23</v>
@@ -73738,7 +73735,7 @@
     </row>
     <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B1138" s="3" t="n">
         <v>0</v>
@@ -73756,10 +73753,10 @@
         <v>39</v>
       </c>
       <c r="G1138" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="H1138" s="3" t="s">
         <v>2065</v>
-      </c>
-      <c r="H1138" s="3" t="s">
-        <v>2066</v>
       </c>
       <c r="I1138" s="3" t="s">
         <v>23</v>
@@ -73797,7 +73794,7 @@
     </row>
     <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="4" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1139" s="2" t="n">
         <v>0</v>
@@ -73806,7 +73803,7 @@
         <v>64</v>
       </c>
       <c r="D1139" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E1139" s="3" t="s">
         <v>22</v>
@@ -73856,7 +73853,7 @@
     </row>
     <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="4" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B1140" s="2" t="n">
         <v>0</v>
@@ -73915,7 +73912,7 @@
     </row>
     <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="4" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1141" s="2" t="n">
         <v>0</v>
@@ -73924,7 +73921,7 @@
         <v>30</v>
       </c>
       <c r="D1141" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E1141" s="3" t="s">
         <v>22</v>
@@ -73942,10 +73939,10 @@
         <v>2014</v>
       </c>
       <c r="J1141" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="K1141" s="6" t="s">
         <v>2071</v>
-      </c>
-      <c r="K1141" s="6" t="s">
-        <v>2072</v>
       </c>
       <c r="L1141" s="5" t="s">
         <v>314</v>
@@ -73963,7 +73960,7 @@
         <v>158</v>
       </c>
       <c r="Q1141" s="5" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="R1141" s="5" t="s">
         <v>39</v>
@@ -73974,7 +73971,7 @@
     </row>
     <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1142" s="2" t="n">
         <v>0</v>
@@ -74033,7 +74030,7 @@
     </row>
     <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="4" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1143" s="2" t="n">
         <v>0</v>
@@ -74092,7 +74089,7 @@
     </row>
     <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1144" s="2" t="n">
         <v>0</v>
@@ -74151,7 +74148,7 @@
     </row>
     <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1145" s="2" t="n">
         <v>0</v>
@@ -74210,7 +74207,7 @@
     </row>
     <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1146" s="2" t="n">
         <v>0</v>
@@ -74269,7 +74266,7 @@
     </row>
     <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1147" s="2" t="n">
         <v>0</v>
@@ -74328,7 +74325,7 @@
     </row>
     <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1148" s="2" t="n">
         <v>0</v>
@@ -74337,10 +74334,10 @@
         <v>113</v>
       </c>
       <c r="D1148" s="4" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E1148" s="3" t="s">
         <v>2077</v>
-      </c>
-      <c r="E1148" s="3" t="s">
-        <v>2078</v>
       </c>
       <c r="F1148" s="3" t="s">
         <v>22</v>
@@ -74355,10 +74352,10 @@
         <v>2014</v>
       </c>
       <c r="J1148" s="5" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K1148" s="5" t="s">
         <v>2079</v>
-      </c>
-      <c r="K1148" s="5" t="s">
-        <v>2080</v>
       </c>
       <c r="L1148" s="5" t="s">
         <v>23</v>
@@ -74387,7 +74384,7 @@
     </row>
     <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1149" s="2" t="n">
         <v>0</v>
@@ -74446,7 +74443,7 @@
     </row>
     <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B1150" s="2" t="n">
         <v>0</v>
@@ -74505,7 +74502,7 @@
     </row>
     <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B1151" s="2" t="n">
         <v>0</v>
@@ -74514,7 +74511,7 @@
         <v>134</v>
       </c>
       <c r="D1151" s="4" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E1151" s="3" t="s">
         <v>22</v>
@@ -74535,10 +74532,10 @@
         <v>83</v>
       </c>
       <c r="K1151" s="5" t="s">
+        <v>2082</v>
+      </c>
+      <c r="L1151" s="5" t="s">
         <v>2083</v>
-      </c>
-      <c r="L1151" s="5" t="s">
-        <v>2084</v>
       </c>
       <c r="M1151" s="5" t="s">
         <v>27</v>
@@ -74564,7 +74561,7 @@
     </row>
     <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B1152" s="2" t="n">
         <v>0</v>
@@ -74623,7 +74620,7 @@
     </row>
     <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="9" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B1153" s="2" t="n">
         <v>0</v>
@@ -74682,7 +74679,7 @@
     </row>
     <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B1154" s="2" t="n">
         <v>0</v>
@@ -74709,7 +74706,7 @@
         <v>2004</v>
       </c>
       <c r="J1154" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K1154" s="5" t="s">
         <v>470</v>
@@ -74741,7 +74738,7 @@
     </row>
     <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1155" s="2" t="n">
         <v>0</v>
@@ -74750,7 +74747,7 @@
         <v>30</v>
       </c>
       <c r="D1155" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E1155" s="3" t="s">
         <v>22</v>
@@ -74768,10 +74765,10 @@
         <v>2016</v>
       </c>
       <c r="J1155" s="5" t="s">
+        <v>2088</v>
+      </c>
+      <c r="K1155" s="5" t="s">
         <v>2089</v>
-      </c>
-      <c r="K1155" s="5" t="s">
-        <v>2090</v>
       </c>
       <c r="L1155" s="5" t="s">
         <v>314</v>
@@ -74800,7 +74797,7 @@
     </row>
     <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1156" s="2" t="n">
         <v>0</v>
@@ -74859,7 +74856,7 @@
     </row>
     <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B1157" s="2" t="n">
         <v>0</v>
@@ -74868,7 +74865,7 @@
         <v>30</v>
       </c>
       <c r="D1157" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E1157" s="3" t="s">
         <v>22</v>
@@ -74886,10 +74883,10 @@
         <v>2005</v>
       </c>
       <c r="J1157" s="5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K1157" s="5" t="s">
         <v>1841</v>
-      </c>
-      <c r="K1157" s="5" t="s">
-        <v>1842</v>
       </c>
       <c r="L1157" s="5" t="s">
         <v>23</v>
@@ -74918,7 +74915,7 @@
     </row>
     <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B1158" s="2" t="n">
         <v>1914427</v>
@@ -74977,7 +74974,7 @@
     </row>
     <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="9" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1159" s="2" t="n">
         <v>0</v>
@@ -74995,10 +74992,10 @@
         <v>39</v>
       </c>
       <c r="G1159" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="H1159" s="3" t="s">
         <v>2094</v>
-      </c>
-      <c r="H1159" s="3" t="s">
-        <v>2095</v>
       </c>
       <c r="I1159" s="3" t="n">
         <v>2018</v>
@@ -75036,7 +75033,7 @@
     </row>
     <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="9" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1160" s="2" t="n">
         <v>0</v>
@@ -75054,10 +75051,10 @@
         <v>39</v>
       </c>
       <c r="G1160" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="H1160" s="3" t="s">
         <v>2094</v>
-      </c>
-      <c r="H1160" s="3" t="s">
-        <v>2095</v>
       </c>
       <c r="I1160" s="3" t="n">
         <v>2018</v>
@@ -75095,7 +75092,7 @@
     </row>
     <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1161" s="2" t="n">
         <v>0</v>
@@ -75104,7 +75101,7 @@
         <v>30</v>
       </c>
       <c r="D1161" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1161" s="3" t="s">
         <v>1289</v>
@@ -75113,10 +75110,10 @@
         <v>39</v>
       </c>
       <c r="G1161" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H1161" s="3" t="s">
         <v>2097</v>
-      </c>
-      <c r="H1161" s="3" t="s">
-        <v>2098</v>
       </c>
       <c r="I1161" s="3" t="n">
         <v>2008</v>
@@ -75125,7 +75122,7 @@
         <v>92</v>
       </c>
       <c r="K1161" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="L1161" s="5" t="s">
         <v>982</v>
@@ -75154,7 +75151,7 @@
     </row>
     <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1162" s="2" t="n">
         <v>0</v>
@@ -75163,7 +75160,7 @@
         <v>30</v>
       </c>
       <c r="D1162" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1162" s="3" t="s">
         <v>1289</v>
@@ -75172,10 +75169,10 @@
         <v>39</v>
       </c>
       <c r="G1162" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H1162" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="H1162" s="3" t="s">
-        <v>2101</v>
       </c>
       <c r="I1162" s="3" t="n">
         <v>2008</v>
@@ -75184,7 +75181,7 @@
         <v>92</v>
       </c>
       <c r="K1162" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="L1162" s="5" t="s">
         <v>982</v>
@@ -75213,7 +75210,7 @@
     </row>
     <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1163" s="2" t="n">
         <v>0</v>
@@ -75222,7 +75219,7 @@
         <v>30</v>
       </c>
       <c r="D1163" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1163" s="3" t="s">
         <v>1289</v>
@@ -75231,10 +75228,10 @@
         <v>39</v>
       </c>
       <c r="G1163" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H1163" s="3" t="s">
         <v>2102</v>
-      </c>
-      <c r="H1163" s="3" t="s">
-        <v>2103</v>
       </c>
       <c r="I1163" s="3" t="n">
         <v>2008</v>
@@ -75243,7 +75240,7 @@
         <v>92</v>
       </c>
       <c r="K1163" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="L1163" s="5" t="s">
         <v>982</v>
@@ -75272,7 +75269,7 @@
     </row>
     <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1164" s="2" t="n">
         <v>0</v>
@@ -75281,7 +75278,7 @@
         <v>30</v>
       </c>
       <c r="D1164" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1164" s="3" t="s">
         <v>1289</v>
@@ -75290,10 +75287,10 @@
         <v>39</v>
       </c>
       <c r="G1164" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H1164" s="3" t="s">
         <v>2104</v>
-      </c>
-      <c r="H1164" s="3" t="s">
-        <v>2105</v>
       </c>
       <c r="I1164" s="3" t="n">
         <v>2008</v>
@@ -75302,7 +75299,7 @@
         <v>92</v>
       </c>
       <c r="K1164" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="L1164" s="5" t="s">
         <v>982</v>
@@ -75331,7 +75328,7 @@
     </row>
     <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1165" s="2" t="n">
         <v>0</v>
@@ -75340,7 +75337,7 @@
         <v>30</v>
       </c>
       <c r="D1165" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1165" s="3" t="s">
         <v>1289</v>
@@ -75349,10 +75346,10 @@
         <v>39</v>
       </c>
       <c r="G1165" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H1165" s="3" t="s">
         <v>2106</v>
-      </c>
-      <c r="H1165" s="3" t="s">
-        <v>2107</v>
       </c>
       <c r="I1165" s="3" t="n">
         <v>2008</v>
@@ -75361,7 +75358,7 @@
         <v>92</v>
       </c>
       <c r="K1165" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="L1165" s="5" t="s">
         <v>982</v>
@@ -75390,7 +75387,7 @@
     </row>
     <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1166" s="2" t="n">
         <v>0</v>
@@ -75399,7 +75396,7 @@
         <v>374</v>
       </c>
       <c r="D1166" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1166" s="3" t="s">
         <v>1289</v>
@@ -75408,10 +75405,10 @@
         <v>39</v>
       </c>
       <c r="G1166" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H1166" s="3" t="s">
         <v>2097</v>
-      </c>
-      <c r="H1166" s="3" t="s">
-        <v>2098</v>
       </c>
       <c r="I1166" s="3" t="n">
         <v>2008</v>
@@ -75420,7 +75417,7 @@
         <v>216</v>
       </c>
       <c r="K1166" s="6" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="L1166" s="5" t="s">
         <v>100</v>
@@ -75449,7 +75446,7 @@
     </row>
     <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1167" s="2" t="n">
         <v>0</v>
@@ -75458,7 +75455,7 @@
         <v>374</v>
       </c>
       <c r="D1167" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1167" s="3" t="s">
         <v>1289</v>
@@ -75467,10 +75464,10 @@
         <v>39</v>
       </c>
       <c r="G1167" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H1167" s="3" t="s">
         <v>2102</v>
-      </c>
-      <c r="H1167" s="3" t="s">
-        <v>2103</v>
       </c>
       <c r="I1167" s="3" t="n">
         <v>2008</v>
@@ -75479,7 +75476,7 @@
         <v>216</v>
       </c>
       <c r="K1167" s="6" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="L1167" s="5" t="s">
         <v>100</v>
@@ -75508,7 +75505,7 @@
     </row>
     <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1168" s="2" t="n">
         <v>0</v>
@@ -75517,7 +75514,7 @@
         <v>374</v>
       </c>
       <c r="D1168" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1168" s="3" t="s">
         <v>1289</v>
@@ -75526,10 +75523,10 @@
         <v>39</v>
       </c>
       <c r="G1168" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H1168" s="3" t="s">
         <v>2106</v>
-      </c>
-      <c r="H1168" s="3" t="s">
-        <v>2107</v>
       </c>
       <c r="I1168" s="3" t="n">
         <v>2008</v>
@@ -75538,7 +75535,7 @@
         <v>216</v>
       </c>
       <c r="K1168" s="6" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="L1168" s="5" t="s">
         <v>100</v>
@@ -75567,7 +75564,7 @@
     </row>
     <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1169" s="2" t="n">
         <v>0</v>
@@ -75576,7 +75573,7 @@
         <v>78</v>
       </c>
       <c r="D1169" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1169" s="3" t="s">
         <v>1289</v>
@@ -75585,10 +75582,10 @@
         <v>39</v>
       </c>
       <c r="G1169" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H1169" s="3" t="s">
         <v>2097</v>
-      </c>
-      <c r="H1169" s="3" t="s">
-        <v>2098</v>
       </c>
       <c r="I1169" s="3" t="n">
         <v>2008</v>
@@ -75597,7 +75594,7 @@
         <v>216</v>
       </c>
       <c r="K1169" s="6" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="L1169" s="5" t="s">
         <v>62</v>
@@ -75626,7 +75623,7 @@
     </row>
     <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1170" s="2" t="n">
         <v>0</v>
@@ -75635,7 +75632,7 @@
         <v>58</v>
       </c>
       <c r="D1170" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1170" s="3" t="s">
         <v>1289</v>
@@ -75644,10 +75641,10 @@
         <v>39</v>
       </c>
       <c r="G1170" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H1170" s="3" t="s">
         <v>2097</v>
-      </c>
-      <c r="H1170" s="3" t="s">
-        <v>2098</v>
       </c>
       <c r="I1170" s="3" t="n">
         <v>2008</v>
@@ -75656,7 +75653,7 @@
         <v>216</v>
       </c>
       <c r="K1170" s="6" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="L1170" s="5" t="s">
         <v>62</v>
@@ -75685,7 +75682,7 @@
     </row>
     <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1171" s="2" t="n">
         <v>0</v>
@@ -75694,7 +75691,7 @@
         <v>78</v>
       </c>
       <c r="D1171" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1171" s="3" t="s">
         <v>1289</v>
@@ -75703,10 +75700,10 @@
         <v>39</v>
       </c>
       <c r="G1171" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H1171" s="3" t="s">
         <v>2102</v>
-      </c>
-      <c r="H1171" s="3" t="s">
-        <v>2103</v>
       </c>
       <c r="I1171" s="3" t="n">
         <v>2008</v>
@@ -75715,7 +75712,7 @@
         <v>216</v>
       </c>
       <c r="K1171" s="6" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="L1171" s="5" t="s">
         <v>62</v>
@@ -75744,7 +75741,7 @@
     </row>
     <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="7" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1172" s="8" t="n">
         <v>0</v>
@@ -75753,7 +75750,7 @@
         <v>58</v>
       </c>
       <c r="D1172" s="7" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1172" s="5" t="s">
         <v>1289</v>
@@ -75762,10 +75759,10 @@
         <v>39</v>
       </c>
       <c r="G1172" s="5" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H1172" s="5" t="s">
         <v>2102</v>
-      </c>
-      <c r="H1172" s="5" t="s">
-        <v>2103</v>
       </c>
       <c r="I1172" s="5" t="n">
         <v>2008</v>
@@ -75774,7 +75771,7 @@
         <v>216</v>
       </c>
       <c r="K1172" s="6" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="L1172" s="5" t="s">
         <v>62</v>
@@ -75803,7 +75800,7 @@
     </row>
     <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1173" s="2" t="n">
         <v>0</v>
@@ -75812,7 +75809,7 @@
         <v>78</v>
       </c>
       <c r="D1173" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1173" s="3" t="s">
         <v>1289</v>
@@ -75821,10 +75818,10 @@
         <v>39</v>
       </c>
       <c r="G1173" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H1173" s="3" t="s">
         <v>2106</v>
-      </c>
-      <c r="H1173" s="3" t="s">
-        <v>2107</v>
       </c>
       <c r="I1173" s="3" t="n">
         <v>2008</v>
@@ -75833,7 +75830,7 @@
         <v>216</v>
       </c>
       <c r="K1173" s="6" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="L1173" s="5" t="s">
         <v>62</v>
@@ -75862,7 +75859,7 @@
     </row>
     <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1174" s="2" t="n">
         <v>0</v>
@@ -75871,7 +75868,7 @@
         <v>58</v>
       </c>
       <c r="D1174" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1174" s="3" t="s">
         <v>1289</v>
@@ -75880,10 +75877,10 @@
         <v>39</v>
       </c>
       <c r="G1174" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H1174" s="3" t="s">
         <v>2106</v>
-      </c>
-      <c r="H1174" s="3" t="s">
-        <v>2107</v>
       </c>
       <c r="I1174" s="3" t="n">
         <v>2008</v>
@@ -75892,7 +75889,7 @@
         <v>216</v>
       </c>
       <c r="K1174" s="6" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="L1174" s="5" t="s">
         <v>62</v>
@@ -75921,7 +75918,7 @@
     </row>
     <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1175" s="2" t="n">
         <v>0</v>
@@ -75930,7 +75927,7 @@
         <v>20</v>
       </c>
       <c r="D1175" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1175" s="3" t="s">
         <v>1289</v>
@@ -75939,10 +75936,10 @@
         <v>39</v>
       </c>
       <c r="G1175" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H1175" s="3" t="s">
         <v>2097</v>
-      </c>
-      <c r="H1175" s="3" t="s">
-        <v>2098</v>
       </c>
       <c r="I1175" s="3" t="n">
         <v>2008</v>
@@ -75951,7 +75948,7 @@
         <v>216</v>
       </c>
       <c r="K1175" s="6" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="L1175" s="5" t="s">
         <v>185</v>
@@ -75980,7 +75977,7 @@
     </row>
     <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1176" s="2" t="n">
         <v>0</v>
@@ -75989,7 +75986,7 @@
         <v>20</v>
       </c>
       <c r="D1176" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1176" s="3" t="s">
         <v>1289</v>
@@ -75998,10 +75995,10 @@
         <v>39</v>
       </c>
       <c r="G1176" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H1176" s="3" t="s">
         <v>2102</v>
-      </c>
-      <c r="H1176" s="3" t="s">
-        <v>2103</v>
       </c>
       <c r="I1176" s="3" t="n">
         <v>2008</v>
@@ -76010,7 +76007,7 @@
         <v>216</v>
       </c>
       <c r="K1176" s="6" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="L1176" s="5" t="s">
         <v>185</v>
@@ -76039,7 +76036,7 @@
     </row>
     <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1177" s="2" t="n">
         <v>0</v>
@@ -76048,7 +76045,7 @@
         <v>64</v>
       </c>
       <c r="D1177" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1177" s="3" t="s">
         <v>1289</v>
@@ -76057,10 +76054,10 @@
         <v>39</v>
       </c>
       <c r="G1177" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H1177" s="3" t="s">
         <v>2097</v>
-      </c>
-      <c r="H1177" s="3" t="s">
-        <v>2098</v>
       </c>
       <c r="I1177" s="3" t="n">
         <v>2008</v>
@@ -76069,7 +76066,7 @@
         <v>216</v>
       </c>
       <c r="K1177" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="L1177" s="5" t="s">
         <v>982</v>
@@ -76098,7 +76095,7 @@
     </row>
     <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1178" s="2" t="n">
         <v>0</v>
@@ -76107,7 +76104,7 @@
         <v>64</v>
       </c>
       <c r="D1178" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1178" s="3" t="s">
         <v>1289</v>
@@ -76116,10 +76113,10 @@
         <v>39</v>
       </c>
       <c r="G1178" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H1178" s="3" t="s">
         <v>2102</v>
-      </c>
-      <c r="H1178" s="3" t="s">
-        <v>2103</v>
       </c>
       <c r="I1178" s="3" t="n">
         <v>2008</v>
@@ -76128,7 +76125,7 @@
         <v>216</v>
       </c>
       <c r="K1178" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="L1178" s="5" t="s">
         <v>982</v>
@@ -76157,7 +76154,7 @@
     </row>
     <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1179" s="2" t="n">
         <v>0</v>
@@ -76166,7 +76163,7 @@
         <v>64</v>
       </c>
       <c r="D1179" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1179" s="3" t="s">
         <v>1289</v>
@@ -76175,10 +76172,10 @@
         <v>39</v>
       </c>
       <c r="G1179" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H1179" s="3" t="s">
         <v>2106</v>
-      </c>
-      <c r="H1179" s="3" t="s">
-        <v>2107</v>
       </c>
       <c r="I1179" s="3" t="n">
         <v>2008</v>
@@ -76187,7 +76184,7 @@
         <v>216</v>
       </c>
       <c r="K1179" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="L1179" s="5" t="s">
         <v>982</v>
@@ -76216,7 +76213,7 @@
     </row>
     <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1180" s="2" t="n">
         <v>0</v>
@@ -76225,19 +76222,19 @@
         <v>677</v>
       </c>
       <c r="D1180" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E1180" s="3" t="s">
         <v>2111</v>
       </c>
-      <c r="E1180" s="3" t="s">
+      <c r="F1180" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1180" s="3" t="s">
         <v>2112</v>
       </c>
-      <c r="F1180" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1180" s="3" t="s">
+      <c r="H1180" s="3" t="s">
         <v>2113</v>
-      </c>
-      <c r="H1180" s="3" t="s">
-        <v>2114</v>
       </c>
       <c r="I1180" s="3" t="n">
         <v>2017</v>
@@ -76246,7 +76243,7 @@
         <v>1188</v>
       </c>
       <c r="K1180" s="6" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L1180" s="5" t="s">
         <v>682</v>
@@ -76275,7 +76272,7 @@
     </row>
     <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1181" s="2" t="n">
         <v>0</v>
@@ -76284,19 +76281,19 @@
         <v>677</v>
       </c>
       <c r="D1181" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E1181" s="3" t="s">
         <v>2111</v>
       </c>
-      <c r="E1181" s="3" t="s">
-        <v>2112</v>
-      </c>
       <c r="F1181" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1181" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H1181" s="3" t="s">
         <v>2116</v>
-      </c>
-      <c r="H1181" s="3" t="s">
-        <v>2117</v>
       </c>
       <c r="I1181" s="3" t="n">
         <v>2017</v>
@@ -76305,7 +76302,7 @@
         <v>1188</v>
       </c>
       <c r="K1181" s="6" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L1181" s="5" t="s">
         <v>682</v>
@@ -76334,7 +76331,7 @@
     </row>
     <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1182" s="2" t="n">
         <v>0</v>
@@ -76343,19 +76340,19 @@
         <v>677</v>
       </c>
       <c r="D1182" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E1182" s="3" t="s">
         <v>2111</v>
       </c>
-      <c r="E1182" s="3" t="s">
-        <v>2112</v>
-      </c>
       <c r="F1182" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1182" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H1182" s="3" t="s">
         <v>2118</v>
-      </c>
-      <c r="H1182" s="3" t="s">
-        <v>2119</v>
       </c>
       <c r="I1182" s="3" t="n">
         <v>2017</v>
@@ -76364,7 +76361,7 @@
         <v>1188</v>
       </c>
       <c r="K1182" s="6" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L1182" s="5" t="s">
         <v>682</v>
@@ -76393,7 +76390,7 @@
     </row>
     <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1183" s="2" t="n">
         <v>0</v>
@@ -76402,19 +76399,19 @@
         <v>677</v>
       </c>
       <c r="D1183" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E1183" s="3" t="s">
         <v>2111</v>
       </c>
-      <c r="E1183" s="3" t="s">
-        <v>2112</v>
-      </c>
       <c r="F1183" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1183" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H1183" s="10" t="s">
         <v>2120</v>
-      </c>
-      <c r="H1183" s="10" t="s">
-        <v>2121</v>
       </c>
       <c r="I1183" s="3" t="n">
         <v>2017</v>
@@ -76423,7 +76420,7 @@
         <v>1188</v>
       </c>
       <c r="K1183" s="6" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L1183" s="5" t="s">
         <v>682</v>
@@ -76452,7 +76449,7 @@
     </row>
     <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1184" s="2" t="n">
         <v>0</v>
@@ -76461,19 +76458,19 @@
         <v>677</v>
       </c>
       <c r="D1184" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E1184" s="3" t="s">
         <v>2111</v>
       </c>
-      <c r="E1184" s="3" t="s">
-        <v>2112</v>
-      </c>
       <c r="F1184" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1184" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="H1184" s="3" t="s">
         <v>2122</v>
-      </c>
-      <c r="H1184" s="3" t="s">
-        <v>2123</v>
       </c>
       <c r="I1184" s="3" t="n">
         <v>2017</v>
@@ -76482,7 +76479,7 @@
         <v>1188</v>
       </c>
       <c r="K1184" s="6" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L1184" s="5" t="s">
         <v>682</v>
@@ -76511,7 +76508,7 @@
     </row>
     <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1185" s="2" t="n">
         <v>0</v>
@@ -76520,19 +76517,19 @@
         <v>677</v>
       </c>
       <c r="D1185" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E1185" s="3" t="s">
         <v>2111</v>
       </c>
-      <c r="E1185" s="3" t="s">
-        <v>2112</v>
-      </c>
       <c r="F1185" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1185" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="H1185" s="3" t="s">
         <v>2124</v>
-      </c>
-      <c r="H1185" s="3" t="s">
-        <v>2125</v>
       </c>
       <c r="I1185" s="3" t="n">
         <v>2017</v>
@@ -76541,7 +76538,7 @@
         <v>1188</v>
       </c>
       <c r="K1185" s="6" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L1185" s="5" t="s">
         <v>682</v>
@@ -76570,7 +76567,7 @@
     </row>
     <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1186" s="2" t="n">
         <v>0</v>
@@ -76579,7 +76576,7 @@
         <v>108</v>
       </c>
       <c r="D1186" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E1186" s="3" t="s">
         <v>492</v>
@@ -76588,10 +76585,10 @@
         <v>39</v>
       </c>
       <c r="G1186" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H1186" s="3" t="s">
         <v>2127</v>
-      </c>
-      <c r="H1186" s="3" t="s">
-        <v>2128</v>
       </c>
       <c r="I1186" s="3" t="n">
         <v>2012</v>
@@ -76600,7 +76597,7 @@
         <v>75</v>
       </c>
       <c r="K1186" s="10" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="L1186" s="3" t="s">
         <v>23</v>
@@ -76629,7 +76626,7 @@
     </row>
     <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1187" s="2" t="n">
         <v>0</v>
@@ -76638,7 +76635,7 @@
         <v>64</v>
       </c>
       <c r="D1187" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E1187" s="3" t="s">
         <v>492</v>
@@ -76647,10 +76644,10 @@
         <v>39</v>
       </c>
       <c r="G1187" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H1187" s="3" t="s">
         <v>2127</v>
-      </c>
-      <c r="H1187" s="3" t="s">
-        <v>2128</v>
       </c>
       <c r="I1187" s="3" t="n">
         <v>2012</v>
@@ -76659,7 +76656,7 @@
         <v>75</v>
       </c>
       <c r="K1187" s="10" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="L1187" s="5" t="s">
         <v>982</v>
@@ -76688,7 +76685,7 @@
     </row>
     <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B1188" s="2" t="n">
         <v>0</v>
@@ -76747,7 +76744,7 @@
     </row>
     <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="7" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1189" s="8" t="n">
         <v>0</v>
@@ -76777,7 +76774,7 @@
         <v>60</v>
       </c>
       <c r="K1189" s="5" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="L1189" s="5" t="s">
         <v>439</v>
@@ -76806,7 +76803,7 @@
     </row>
     <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1190" s="2" t="n">
         <v>0</v>
@@ -76836,7 +76833,7 @@
         <v>60</v>
       </c>
       <c r="K1190" s="5" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L1190" s="5" t="s">
         <v>439</v>
@@ -76865,7 +76862,7 @@
     </row>
     <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1191" s="2" t="n">
         <v>0</v>
@@ -76924,7 +76921,7 @@
     </row>
     <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1192" s="2" t="n">
         <v>0</v>
@@ -76983,7 +76980,7 @@
     </row>
     <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1193" s="2" t="n">
         <v>0</v>
@@ -77042,7 +77039,7 @@
     </row>
     <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1194" s="2" t="n">
         <v>0</v>
@@ -77101,16 +77098,16 @@
     </row>
     <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1195" s="2" t="s">
         <v>2135</v>
       </c>
-      <c r="B1195" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1195" s="2" t="s">
+      <c r="D1195" s="4" t="s">
         <v>2136</v>
-      </c>
-      <c r="D1195" s="4" t="s">
-        <v>2137</v>
       </c>
       <c r="E1195" s="3" t="s">
         <v>22</v>
@@ -77128,10 +77125,10 @@
         <v>2015</v>
       </c>
       <c r="J1195" s="5" t="s">
+        <v>2137</v>
+      </c>
+      <c r="K1195" s="5" t="s">
         <v>2138</v>
-      </c>
-      <c r="K1195" s="5" t="s">
-        <v>2139</v>
       </c>
       <c r="L1195" s="5" t="s">
         <v>1024</v>
@@ -77160,16 +77157,16 @@
     </row>
     <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1196" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1196" s="2" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D1196" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E1196" s="3" t="s">
         <v>22</v>
@@ -77187,13 +77184,13 @@
         <v>2014</v>
       </c>
       <c r="J1196" s="5" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="K1196" s="5" t="s">
+        <v>2140</v>
+      </c>
+      <c r="L1196" s="5" t="s">
         <v>2141</v>
-      </c>
-      <c r="L1196" s="5" t="s">
-        <v>2142</v>
       </c>
       <c r="M1196" s="5" t="s">
         <v>27</v>
@@ -77219,7 +77216,7 @@
     </row>
     <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B1197" s="2" t="n">
         <v>29494</v>
@@ -77278,7 +77275,7 @@
     </row>
     <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="9" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B1198" s="2" t="n">
         <v>0</v>
@@ -77296,10 +77293,10 @@
         <v>39</v>
       </c>
       <c r="G1198" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H1198" s="3" t="s">
         <v>2145</v>
-      </c>
-      <c r="H1198" s="3" t="s">
-        <v>2146</v>
       </c>
       <c r="I1198" s="3" t="n">
         <v>2018</v>
@@ -77337,7 +77334,7 @@
     </row>
     <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="9" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B1199" s="2" t="n">
         <v>0</v>
@@ -77355,10 +77352,10 @@
         <v>39</v>
       </c>
       <c r="G1199" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H1199" s="3" t="s">
         <v>2145</v>
-      </c>
-      <c r="H1199" s="3" t="s">
-        <v>2146</v>
       </c>
       <c r="I1199" s="3" t="n">
         <v>2018</v>
@@ -77396,16 +77393,16 @@
     </row>
     <row r="1200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="4" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1200" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1200" s="2" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D1200" s="4" t="s">
         <v>2136</v>
-      </c>
-      <c r="D1200" s="4" t="s">
-        <v>2137</v>
       </c>
       <c r="E1200" s="3" t="s">
         <v>22</v>
@@ -77423,10 +77420,10 @@
         <v>2017</v>
       </c>
       <c r="J1200" s="5" t="s">
+        <v>2137</v>
+      </c>
+      <c r="K1200" s="5" t="s">
         <v>2138</v>
-      </c>
-      <c r="K1200" s="5" t="s">
-        <v>2139</v>
       </c>
       <c r="L1200" s="5" t="s">
         <v>1024</v>
@@ -77455,16 +77452,16 @@
     </row>
     <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="4" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1201" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1201" s="2" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D1201" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E1201" s="3" t="s">
         <v>22</v>
@@ -77482,13 +77479,13 @@
         <v>2016</v>
       </c>
       <c r="J1201" s="5" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="K1201" s="5" t="s">
+        <v>2140</v>
+      </c>
+      <c r="L1201" s="5" t="s">
         <v>2141</v>
-      </c>
-      <c r="L1201" s="5" t="s">
-        <v>2142</v>
       </c>
       <c r="M1201" s="5" t="s">
         <v>27</v>
@@ -77514,7 +77511,7 @@
     </row>
     <row r="1202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="4" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B1202" s="2" t="n">
         <v>0</v>
@@ -77573,7 +77570,7 @@
     </row>
     <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="4" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B1203" s="2" t="n">
         <v>0</v>
@@ -77582,7 +77579,7 @@
         <v>113</v>
       </c>
       <c r="D1203" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E1203" s="3" t="s">
         <v>22</v>
@@ -77600,10 +77597,10 @@
         <v>2008</v>
       </c>
       <c r="J1203" s="5" t="s">
+        <v>2150</v>
+      </c>
+      <c r="K1203" s="5" t="s">
         <v>2151</v>
-      </c>
-      <c r="K1203" s="5" t="s">
-        <v>2152</v>
       </c>
       <c r="L1203" s="5" t="s">
         <v>23</v>
@@ -77632,7 +77629,7 @@
     </row>
     <row r="1204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="7" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B1204" s="8" t="n">
         <v>0</v>
@@ -77641,10 +77638,10 @@
         <v>1539</v>
       </c>
       <c r="D1204" s="7" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E1204" s="5" t="s">
         <v>2154</v>
-      </c>
-      <c r="E1204" s="5" t="s">
-        <v>2155</v>
       </c>
       <c r="F1204" s="5" t="s">
         <v>22</v>
@@ -77662,7 +77659,7 @@
         <v>83</v>
       </c>
       <c r="K1204" s="5" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="L1204" s="5" t="s">
         <v>23</v>
